--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2105ECC7-D220-6843-8DF3-DF6276E4CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B3A0DAC2-E090-DE40-957A-E3CA2B209658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2795" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2279" uniqueCount="74">
   <si>
     <t>Männlich</t>
   </si>
@@ -82,15 +82,6 @@
   </si>
   <si>
     <t>eher aktiv</t>
-  </si>
-  <si>
-    <t>nie</t>
-  </si>
-  <si>
-    <t>immer</t>
-  </si>
-  <si>
-    <t>gelegentlich</t>
   </si>
   <si>
     <t>30-39 Jahre</t>
@@ -166,9 +157,6 @@
   </si>
   <si>
     <t>forst</t>
-  </si>
-  <si>
-    <t>Post</t>
   </si>
   <si>
     <t>Forst, LN verpachtet</t>
@@ -255,22 +243,10 @@
     <t>f3Fuetterung_anteil_pflanzlich</t>
   </si>
   <si>
-    <t>f1Imagearbeit_ausweiten</t>
+    <t>f1Imagearbeit_ist</t>
   </si>
   <si>
-    <t>f2Imagearbeit_ist</t>
-  </si>
-  <si>
-    <t>f3Imagearbeit_wahrnehmung</t>
-  </si>
-  <si>
-    <t>f2Stimmungsabfrage_soziale_medien_nutzung</t>
-  </si>
-  <si>
-    <t>f4Stimmungsabfrage_wunsch_rückmeldung</t>
-  </si>
-  <si>
-    <t>f1Stimmungsabfrage_zukünftig_mehr_tiger</t>
+    <t>f2Imagearbeit_wahrnehmung</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,66 +1102,54 @@
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1226,39 +1190,30 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1279,22 +1234,13 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1332,39 +1278,30 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -1385,22 +1322,13 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1411,16 +1339,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -1441,27 +1369,18 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1470,13 +1389,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -1497,22 +1416,13 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1523,52 +1433,43 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -1605,34 +1506,25 @@
       <c r="M9" t="s">
         <v>4</v>
       </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -1653,36 +1545,27 @@
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="R10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -1706,27 +1589,18 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
       </c>
-      <c r="P11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1738,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1759,45 +1633,36 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
         <v>2</v>
@@ -1812,22 +1677,13 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1841,13 +1697,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -1868,22 +1724,13 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1900,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1921,22 +1768,13 @@
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1947,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1974,22 +1812,13 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2000,66 +1829,57 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
       <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
@@ -2080,39 +1900,30 @@
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" t="s">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
         <v>21</v>
-      </c>
-      <c r="R18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -2133,39 +1944,30 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -2186,27 +1988,18 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O20" t="s">
-        <v>13</v>
-      </c>
-      <c r="P20" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" t="s">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
-      </c>
-      <c r="R20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2215,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -2238,17 +2031,8 @@
       <c r="M21" t="s">
         <v>4</v>
       </c>
-      <c r="N21" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2259,13 +2043,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -2285,17 +2069,8 @@
       <c r="M22" t="s">
         <v>4</v>
       </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2309,19 +2084,19 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
         <v>2</v>
@@ -2336,39 +2111,30 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" t="s">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -2389,39 +2155,30 @@
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -2441,31 +2198,22 @@
       <c r="M25" t="s">
         <v>4</v>
       </c>
-      <c r="N25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -2488,22 +2236,13 @@
       <c r="M26" t="s">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2512,13 +2251,13 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
@@ -2539,33 +2278,24 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O27" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" t="s">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -2592,22 +2322,13 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2618,13 +2339,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -2645,22 +2366,13 @@
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2671,13 +2383,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
@@ -2697,37 +2409,28 @@
       <c r="M30" t="s">
         <v>4</v>
       </c>
-      <c r="N30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
         <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
@@ -2747,22 +2450,13 @@
       <c r="M31" t="s">
         <v>4</v>
       </c>
-      <c r="N31" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2774,13 +2468,13 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
         <v>2</v>
@@ -2795,27 +2489,18 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O32" t="s">
-        <v>14</v>
-      </c>
-      <c r="P32" t="s">
         <v>18</v>
       </c>
-      <c r="Q32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" t="s">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2827,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -2848,22 +2533,13 @@
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2874,13 +2550,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -2901,30 +2577,18 @@
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
         <v>26</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2936,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
@@ -2957,45 +2621,36 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P35" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J36" t="s">
         <v>2</v>
@@ -3010,39 +2665,30 @@
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P36" t="s">
         <v>18</v>
       </c>
-      <c r="Q36" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
         <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
@@ -3063,39 +2709,30 @@
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
@@ -3116,45 +2753,36 @@
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O38" t="s">
-        <v>14</v>
-      </c>
-      <c r="P38" t="s">
         <v>18</v>
       </c>
-      <c r="Q38" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s">
         <v>2</v>
@@ -3169,24 +2797,15 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O39" t="s">
-        <v>15</v>
-      </c>
-      <c r="P39" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -3201,13 +2820,13 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J40" t="s">
         <v>2</v>
@@ -3221,34 +2840,25 @@
       <c r="M40" t="s">
         <v>2</v>
       </c>
-      <c r="N40" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="s">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="R40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -3269,27 +2879,18 @@
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O41" t="s">
-        <v>14</v>
-      </c>
-      <c r="P41" t="s">
         <v>18</v>
       </c>
-      <c r="Q41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3322,39 +2923,30 @@
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O42" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" t="s">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
         <v>21</v>
-      </c>
-      <c r="R42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -3375,22 +2967,13 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O43" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" t="s">
         <v>18</v>
       </c>
-      <c r="Q43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3404,60 +2987,51 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
       <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -3478,33 +3052,24 @@
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O45" t="s">
         <v>13</v>
       </c>
-      <c r="P45" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>19</v>
-      </c>
-      <c r="R45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -3516,7 +3081,7 @@
         <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s">
         <v>2</v>
@@ -3531,27 +3096,18 @@
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O46" t="s">
-        <v>14</v>
-      </c>
-      <c r="P46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3583,22 +3139,13 @@
       <c r="M47" t="s">
         <v>2</v>
       </c>
-      <c r="N47" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3607,13 +3154,13 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
         <v>8</v>
@@ -3634,33 +3181,24 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O48" t="s">
         <v>13</v>
       </c>
-      <c r="P48" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -3672,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J49" t="s">
         <v>2</v>
@@ -3687,27 +3225,18 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O49" t="s">
-        <v>13</v>
-      </c>
-      <c r="P49" t="s">
         <v>18</v>
       </c>
-      <c r="Q49" t="s">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
         <v>19</v>
-      </c>
-      <c r="R49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3716,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
         <v>7</v>
@@ -3740,22 +3269,13 @@
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O50" t="s">
-        <v>14</v>
-      </c>
-      <c r="P50" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3766,19 +3286,19 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J51" t="s">
         <v>2</v>
@@ -3793,92 +3313,74 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
         <v>14</v>
       </c>
-      <c r="P51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" t="s">
+      <c r="O52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" t="s">
-        <v>2</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L52" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" t="s">
-        <v>2</v>
-      </c>
-      <c r="N52" t="s">
-        <v>2</v>
-      </c>
-      <c r="O52" t="s">
-        <v>14</v>
-      </c>
-      <c r="P52" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
         <v>8</v>
@@ -3899,27 +3401,18 @@
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O53" t="s">
-        <v>14</v>
-      </c>
-      <c r="P53" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3931,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
@@ -3952,39 +3445,30 @@
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O54" t="s">
-        <v>14</v>
-      </c>
-      <c r="P54" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
         <v>21</v>
-      </c>
-      <c r="R54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -4005,27 +3489,18 @@
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O55" t="s">
         <v>13</v>
       </c>
-      <c r="P55" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -4034,13 +3509,13 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
         <v>8</v>
@@ -4061,27 +3536,18 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O56" t="s">
-        <v>13</v>
-      </c>
-      <c r="P56" t="s">
         <v>18</v>
       </c>
-      <c r="Q56" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -4093,7 +3559,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
         <v>8</v>
@@ -4114,36 +3580,27 @@
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O57" t="s">
-        <v>14</v>
-      </c>
-      <c r="P57" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
@@ -4167,27 +3624,18 @@
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O58" t="s">
-        <v>13</v>
-      </c>
-      <c r="P58" t="s">
         <v>18</v>
       </c>
-      <c r="Q58" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -4199,7 +3647,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
         <v>8</v>
@@ -4220,39 +3668,30 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O59" t="s">
-        <v>14</v>
-      </c>
-      <c r="P59" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -4272,17 +3711,8 @@
       <c r="M60" t="s">
         <v>4</v>
       </c>
-      <c r="N60" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4293,13 +3723,13 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
         <v>8</v>
@@ -4320,39 +3750,30 @@
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O61" t="s">
         <v>13</v>
       </c>
-      <c r="P61" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>21</v>
-      </c>
-      <c r="R61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
         <v>27</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -4373,45 +3794,36 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O62" t="s">
-        <v>14</v>
-      </c>
-      <c r="P62" t="s">
         <v>18</v>
       </c>
-      <c r="Q62" t="s">
-        <v>21</v>
-      </c>
-      <c r="R62" t="s">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s">
         <v>22</v>
       </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J63" t="s">
         <v>2</v>
@@ -4426,22 +3838,13 @@
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O63" t="s">
-        <v>15</v>
-      </c>
-      <c r="P63" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4452,13 +3855,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -4479,42 +3882,33 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O64" t="s">
-        <v>14</v>
-      </c>
-      <c r="P64" t="s">
         <v>18</v>
       </c>
-      <c r="Q64" t="s">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>19</v>
       </c>
-      <c r="R64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
@@ -4535,22 +3929,13 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O65" t="s">
-        <v>14</v>
-      </c>
-      <c r="P65" t="s">
         <v>18</v>
       </c>
-      <c r="Q65" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4567,13 +3952,13 @@
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J66" t="s">
         <v>4</v>
@@ -4588,56 +3973,47 @@
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O66" t="s">
-        <v>13</v>
-      </c>
-      <c r="P66" t="s">
         <v>18</v>
       </c>
-      <c r="Q66" t="s">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
         <v>19</v>
       </c>
-      <c r="R66" t="s">
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
@@ -4658,45 +4034,36 @@
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O68" t="s">
-        <v>15</v>
-      </c>
-      <c r="P68" t="s">
         <v>18</v>
       </c>
-      <c r="Q68" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J69" t="s">
         <v>2</v>
@@ -4711,42 +4078,33 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O69" t="s">
-        <v>14</v>
-      </c>
-      <c r="P69" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
@@ -4767,33 +4125,24 @@
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O70" t="s">
         <v>13</v>
       </c>
-      <c r="P70" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>21</v>
-      </c>
-      <c r="R70" t="s">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -4820,39 +4169,30 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O71" t="s">
-        <v>14</v>
-      </c>
-      <c r="P71" t="s">
         <v>16</v>
       </c>
-      <c r="Q71" t="s">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="R71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
@@ -4873,33 +4213,24 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O72" t="s">
-        <v>14</v>
-      </c>
-      <c r="P72" t="s">
         <v>18</v>
       </c>
-      <c r="Q72" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -4926,22 +4257,13 @@
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O73" t="s">
-        <v>28</v>
-      </c>
-      <c r="P73" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4952,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -4979,39 +4301,30 @@
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O74" t="s">
-        <v>14</v>
-      </c>
-      <c r="P74" t="s">
         <v>16</v>
       </c>
-      <c r="Q74" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H75" t="s">
         <v>9</v>
@@ -5032,22 +4345,13 @@
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O75" t="s">
         <v>13</v>
       </c>
-      <c r="P75" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>21</v>
-      </c>
-      <c r="R75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5061,13 +4365,13 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
@@ -5087,22 +4391,13 @@
       <c r="M76" t="s">
         <v>4</v>
       </c>
-      <c r="N76" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -5134,34 +4429,25 @@
       <c r="M77" t="s">
         <v>4</v>
       </c>
-      <c r="N77" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
@@ -5182,33 +4468,24 @@
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O78" t="s">
         <v>13</v>
       </c>
-      <c r="P78" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>21</v>
-      </c>
-      <c r="R78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -5235,22 +4512,13 @@
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O79" t="s">
-        <v>14</v>
-      </c>
-      <c r="P79" t="s">
         <v>18</v>
       </c>
-      <c r="Q79" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -5291,39 +4559,30 @@
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O80" t="s">
-        <v>15</v>
-      </c>
-      <c r="P80" t="s">
         <v>16</v>
       </c>
-      <c r="Q80" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H81" t="s">
         <v>8</v>
@@ -5344,39 +4603,30 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O81" t="s">
-        <v>14</v>
-      </c>
-      <c r="P81" t="s">
         <v>18</v>
       </c>
-      <c r="Q81" t="s">
-        <v>19</v>
-      </c>
-      <c r="R81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -5396,34 +4646,25 @@
       <c r="M82" t="s">
         <v>2</v>
       </c>
-      <c r="N82" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q82" t="s">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
         <v>21</v>
-      </c>
-      <c r="R82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
@@ -5443,17 +4684,8 @@
       <c r="M83" t="s">
         <v>2</v>
       </c>
-      <c r="N83" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>21</v>
-      </c>
-      <c r="R83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5470,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H84" t="s">
         <v>8</v>
@@ -5491,22 +4723,13 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O84" t="s">
-        <v>14</v>
-      </c>
-      <c r="P84" t="s">
         <v>18</v>
       </c>
-      <c r="Q84" t="s">
-        <v>21</v>
-      </c>
-      <c r="R84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5520,13 +4743,13 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -5547,39 +4770,30 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O85" t="s">
-        <v>14</v>
-      </c>
-      <c r="P85" t="s">
         <v>18</v>
       </c>
-      <c r="Q85" t="s">
-        <v>20</v>
-      </c>
-      <c r="R85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H86" t="s">
         <v>9</v>
@@ -5600,33 +4814,24 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O86" t="s">
         <v>13</v>
       </c>
-      <c r="P86" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>19</v>
-      </c>
-      <c r="R86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -5653,39 +4858,30 @@
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O87" t="s">
         <v>13</v>
       </c>
-      <c r="P87" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>20</v>
-      </c>
-      <c r="R87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
         <v>27</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
@@ -5706,39 +4902,30 @@
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O88" t="s">
         <v>13</v>
       </c>
-      <c r="P88" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>20</v>
-      </c>
-      <c r="R88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89" t="s">
         <v>27</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -5758,22 +4945,13 @@
       <c r="M89" t="s">
         <v>4</v>
       </c>
-      <c r="N89" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>20</v>
-      </c>
-      <c r="R89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -5785,7 +4963,7 @@
         <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H90" t="s">
         <v>8</v>
@@ -5806,27 +4984,18 @@
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O90" t="s">
-        <v>15</v>
-      </c>
-      <c r="P90" t="s">
         <v>18</v>
       </c>
-      <c r="Q90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -5835,10 +5004,10 @@
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
@@ -5859,22 +5028,13 @@
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O91" t="s">
-        <v>28</v>
-      </c>
-      <c r="P91" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>21</v>
-      </c>
-      <c r="R91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5885,13 +5045,13 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
         <v>9</v>
@@ -5912,22 +5072,13 @@
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O92" t="s">
-        <v>15</v>
-      </c>
-      <c r="P92" t="s">
         <v>16</v>
       </c>
-      <c r="Q92" t="s">
-        <v>19</v>
-      </c>
-      <c r="R92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5965,39 +5116,30 @@
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O93" t="s">
-        <v>14</v>
-      </c>
-      <c r="P93" t="s">
         <v>18</v>
       </c>
-      <c r="Q93" t="s">
-        <v>20</v>
-      </c>
-      <c r="R93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
         <v>8</v>
@@ -6018,27 +5160,18 @@
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O94" t="s">
-        <v>28</v>
-      </c>
-      <c r="P94" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>20</v>
-      </c>
-      <c r="R94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" t="s">
-        <v>22</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -6047,13 +5180,13 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
@@ -6074,42 +5207,33 @@
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O95" t="s">
-        <v>14</v>
-      </c>
-      <c r="P95" t="s">
         <v>16</v>
       </c>
-      <c r="Q95" t="s">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
         <v>21</v>
-      </c>
-      <c r="R95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" t="s">
-        <v>56</v>
-      </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
       </c>
       <c r="H96" t="s">
         <v>8</v>
@@ -6130,22 +5254,13 @@
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O96" t="s">
-        <v>15</v>
-      </c>
-      <c r="P96" t="s">
         <v>18</v>
       </c>
-      <c r="Q96" t="s">
-        <v>21</v>
-      </c>
-      <c r="R96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6156,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -6165,63 +5280,54 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" t="s">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
         <v>25</v>
       </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" t="s">
-        <v>2</v>
-      </c>
-      <c r="K97" t="s">
-        <v>2</v>
-      </c>
-      <c r="L97" t="s">
-        <v>2</v>
-      </c>
-      <c r="M97" t="s">
-        <v>2</v>
-      </c>
-      <c r="N97" t="s">
-        <v>2</v>
-      </c>
       <c r="O97" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" t="s">
         <v>18</v>
       </c>
-      <c r="Q97" t="s">
-        <v>21</v>
-      </c>
-      <c r="R97" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J98" t="s">
         <v>2</v>
@@ -6236,22 +5342,13 @@
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O98" t="s">
-        <v>14</v>
-      </c>
-      <c r="P98" t="s">
         <v>16</v>
       </c>
-      <c r="Q98" t="s">
-        <v>20</v>
-      </c>
-      <c r="R98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6262,13 +5359,13 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
@@ -6289,36 +5386,27 @@
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O99" t="s">
-        <v>14</v>
-      </c>
-      <c r="P99" t="s">
         <v>18</v>
       </c>
-      <c r="Q99" t="s">
-        <v>20</v>
-      </c>
-      <c r="R99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G100" t="s">
         <v>7</v>
@@ -6342,27 +5430,18 @@
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O100" t="s">
-        <v>14</v>
-      </c>
-      <c r="P100" t="s">
         <v>18</v>
       </c>
-      <c r="Q100" t="s">
-        <v>19</v>
-      </c>
-      <c r="R100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -6374,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
@@ -6395,33 +5474,24 @@
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O101" t="s">
-        <v>28</v>
-      </c>
-      <c r="P101" t="s">
         <v>18</v>
       </c>
-      <c r="Q101" t="s">
-        <v>21</v>
-      </c>
-      <c r="R101" t="s">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>22</v>
-      </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -6448,39 +5518,30 @@
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O102" t="s">
-        <v>28</v>
-      </c>
-      <c r="P102" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>21</v>
-      </c>
-      <c r="R102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
         <v>9</v>
@@ -6501,33 +5562,24 @@
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O103" t="s">
-        <v>14</v>
-      </c>
-      <c r="P103" t="s">
         <v>18</v>
       </c>
-      <c r="Q103" t="s">
-        <v>21</v>
-      </c>
-      <c r="R103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -6554,42 +5606,33 @@
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O104" t="s">
-        <v>14</v>
-      </c>
-      <c r="P104" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>19</v>
-      </c>
-      <c r="R104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
@@ -6610,22 +5653,13 @@
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O105" t="s">
-        <v>13</v>
-      </c>
-      <c r="P105" t="s">
         <v>18</v>
       </c>
-      <c r="Q105" t="s">
-        <v>20</v>
-      </c>
-      <c r="R105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6636,13 +5670,13 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s">
         <v>9</v>
@@ -6663,39 +5697,30 @@
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O106" t="s">
-        <v>32</v>
-      </c>
-      <c r="P106" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>19</v>
-      </c>
-      <c r="R106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
         <v>27</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
@@ -6715,34 +5740,25 @@
       <c r="M107" t="s">
         <v>4</v>
       </c>
-      <c r="N107" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q107" t="s">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" t="s">
         <v>21</v>
-      </c>
-      <c r="R107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
       </c>
       <c r="H108" t="s">
         <v>8</v>
@@ -6763,27 +5779,18 @@
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O108" t="s">
-        <v>32</v>
-      </c>
-      <c r="P108" t="s">
         <v>18</v>
       </c>
-      <c r="Q108" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -6815,87 +5822,69 @@
       <c r="M109" t="s">
         <v>4</v>
       </c>
-      <c r="N109" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>19</v>
-      </c>
-      <c r="R109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
       <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K110" t="s">
+        <v>2</v>
+      </c>
+      <c r="L110" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>13</v>
+      </c>
+      <c r="O110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
         <v>27</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
-      <c r="H110" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" t="s">
-        <v>2</v>
-      </c>
-      <c r="K110" t="s">
-        <v>2</v>
-      </c>
-      <c r="L110" t="s">
-        <v>2</v>
-      </c>
-      <c r="M110" t="s">
-        <v>4</v>
-      </c>
-      <c r="N110" t="s">
-        <v>2</v>
-      </c>
-      <c r="O110" t="s">
-        <v>13</v>
-      </c>
-      <c r="P110" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>19</v>
-      </c>
-      <c r="R110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
       </c>
       <c r="H111" t="s">
         <v>8</v>
@@ -6916,22 +5905,13 @@
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O111" t="s">
         <v>13</v>
       </c>
-      <c r="P111" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>21</v>
-      </c>
-      <c r="R111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6942,10 +5922,10 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -6971,34 +5951,25 @@
       <c r="M112" t="s">
         <v>4</v>
       </c>
-      <c r="N112" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>20</v>
-      </c>
-      <c r="R112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
       </c>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
@@ -7019,27 +5990,18 @@
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O113" t="s">
-        <v>14</v>
-      </c>
-      <c r="P113" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>19</v>
-      </c>
-      <c r="R113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -7048,13 +6010,13 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
       </c>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -7075,45 +6037,36 @@
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O114" t="s">
-        <v>32</v>
-      </c>
-      <c r="P114" t="s">
         <v>16</v>
       </c>
-      <c r="Q114" t="s">
-        <v>19</v>
-      </c>
-      <c r="R114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J115" t="s">
         <v>2</v>
@@ -7128,24 +6081,15 @@
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O115" t="s">
-        <v>15</v>
-      </c>
-      <c r="P115" t="s">
         <v>16</v>
       </c>
-      <c r="Q115" t="s">
-        <v>19</v>
-      </c>
-      <c r="R115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
@@ -7160,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H116" t="s">
         <v>8</v>
@@ -7180,17 +6124,8 @@
       <c r="M116" t="s">
         <v>2</v>
       </c>
-      <c r="N116" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>21</v>
-      </c>
-      <c r="R116" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -7201,16 +6136,16 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I117" t="s">
         <v>10</v>
@@ -7228,22 +6163,13 @@
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O117" t="s">
-        <v>13</v>
-      </c>
-      <c r="P117" t="s">
         <v>18</v>
       </c>
-      <c r="Q117" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -7254,16 +6180,16 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
@@ -7284,22 +6210,13 @@
         <v>2</v>
       </c>
       <c r="N118" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O118" t="s">
-        <v>28</v>
-      </c>
-      <c r="P118" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>19</v>
-      </c>
-      <c r="R118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +6233,7 @@
         <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H119" t="s">
         <v>8</v>
@@ -7336,19 +6253,10 @@
       <c r="M119" t="s">
         <v>4</v>
       </c>
-      <c r="N119" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>19</v>
-      </c>
-      <c r="R119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
         <v>1</v>
@@ -7363,7 +6271,7 @@
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
         <v>8</v>
@@ -7383,17 +6291,8 @@
       <c r="M120" t="s">
         <v>4</v>
       </c>
-      <c r="N120" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>20</v>
-      </c>
-      <c r="R120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -7404,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -7431,27 +6330,18 @@
         <v>4</v>
       </c>
       <c r="N121" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O121" t="s">
-        <v>14</v>
-      </c>
-      <c r="P121" t="s">
         <v>18</v>
       </c>
-      <c r="Q121" t="s">
-        <v>21</v>
-      </c>
-      <c r="R121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -7463,7 +6353,7 @@
         <v>6</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
@@ -7484,22 +6374,13 @@
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O122" t="s">
-        <v>28</v>
-      </c>
-      <c r="P122" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>21</v>
-      </c>
-      <c r="R122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -7510,13 +6391,13 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
@@ -7537,22 +6418,13 @@
         <v>4</v>
       </c>
       <c r="N123" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O123" t="s">
-        <v>15</v>
-      </c>
-      <c r="P123" t="s">
         <v>18</v>
       </c>
-      <c r="Q123" t="s">
-        <v>20</v>
-      </c>
-      <c r="R123" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -7569,7 +6441,7 @@
         <v>6</v>
       </c>
       <c r="G124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H124" t="s">
         <v>8</v>
@@ -7589,17 +6461,8 @@
       <c r="M124" t="s">
         <v>4</v>
       </c>
-      <c r="N124" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -7610,13 +6473,13 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
       </c>
       <c r="G125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7637,22 +6500,13 @@
         <v>4</v>
       </c>
       <c r="N125" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O125" t="s">
-        <v>14</v>
-      </c>
-      <c r="P125" t="s">
         <v>18</v>
       </c>
-      <c r="Q125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -7663,13 +6517,13 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H126" t="s">
         <v>8</v>
@@ -7690,33 +6544,24 @@
         <v>4</v>
       </c>
       <c r="N126" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O126" t="s">
-        <v>32</v>
-      </c>
-      <c r="P126" t="s">
         <v>17</v>
       </c>
-      <c r="Q126" t="s">
-        <v>21</v>
-      </c>
-      <c r="R126" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -7743,22 +6588,13 @@
         <v>4</v>
       </c>
       <c r="N127" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O127" t="s">
-        <v>14</v>
-      </c>
-      <c r="P127" t="s">
         <v>18</v>
       </c>
-      <c r="Q127" t="s">
-        <v>21</v>
-      </c>
-      <c r="R127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -7772,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -7784,7 +6620,7 @@
         <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J128" t="s">
         <v>4</v>
@@ -7799,27 +6635,18 @@
         <v>4</v>
       </c>
       <c r="N128" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O128" t="s">
-        <v>15</v>
-      </c>
-      <c r="P128" t="s">
         <v>16</v>
       </c>
-      <c r="Q128" t="s">
-        <v>19</v>
-      </c>
-      <c r="R128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -7831,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7852,27 +6679,18 @@
         <v>2</v>
       </c>
       <c r="N129" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O129" t="s">
         <v>13</v>
       </c>
-      <c r="P129" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>19</v>
-      </c>
-      <c r="R129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -7884,7 +6702,7 @@
         <v>6</v>
       </c>
       <c r="G130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H130" t="s">
         <v>8</v>
@@ -7905,22 +6723,13 @@
         <v>4</v>
       </c>
       <c r="N130" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O130" t="s">
-        <v>14</v>
-      </c>
-      <c r="P130" t="s">
         <v>18</v>
       </c>
-      <c r="Q130" t="s">
-        <v>21</v>
-      </c>
-      <c r="R130" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -7931,10 +6740,10 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -7960,17 +6769,8 @@
       <c r="M131" t="s">
         <v>4</v>
       </c>
-      <c r="N131" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>20</v>
-      </c>
-      <c r="R131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -7981,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -8011,22 +6811,13 @@
         <v>2</v>
       </c>
       <c r="N132" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O132" t="s">
-        <v>14</v>
-      </c>
-      <c r="P132" t="s">
         <v>18</v>
       </c>
-      <c r="Q132" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -8040,13 +6831,13 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H133" t="s">
         <v>8</v>
@@ -8066,40 +6857,31 @@
       <c r="M133" t="s">
         <v>4</v>
       </c>
-      <c r="N133" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q133" t="s">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
         <v>21</v>
       </c>
-      <c r="R133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="H134" t="s">
         <v>22</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" t="s">
-        <v>24</v>
-      </c>
-      <c r="H134" t="s">
-        <v>25</v>
       </c>
       <c r="I134" t="s">
         <v>10</v>
@@ -8117,40 +6899,31 @@
         <v>4</v>
       </c>
       <c r="N134" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O134" t="s">
-        <v>14</v>
-      </c>
-      <c r="P134" t="s">
         <v>18</v>
       </c>
-      <c r="Q134" t="s">
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" t="s">
         <v>21</v>
       </c>
-      <c r="R134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>23</v>
-      </c>
-      <c r="F135" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
       <c r="H135" t="s">
         <v>8</v>
       </c>
@@ -8169,34 +6942,25 @@
       <c r="M135" t="s">
         <v>4</v>
       </c>
-      <c r="N135" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
       </c>
       <c r="G136" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H136" t="s">
         <v>8</v>
@@ -8217,27 +6981,18 @@
         <v>4</v>
       </c>
       <c r="N136" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O136" t="s">
-        <v>14</v>
-      </c>
-      <c r="P136" t="s">
         <v>18</v>
       </c>
-      <c r="Q136" t="s">
-        <v>20</v>
-      </c>
-      <c r="R136" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -8249,7 +7004,7 @@
         <v>6</v>
       </c>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H137" t="s">
         <v>8</v>
@@ -8270,39 +7025,30 @@
         <v>2</v>
       </c>
       <c r="N137" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O137" t="s">
-        <v>14</v>
-      </c>
-      <c r="P137" t="s">
         <v>18</v>
       </c>
-      <c r="Q137" t="s">
-        <v>21</v>
-      </c>
-      <c r="R137" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>0</v>
       </c>
       <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
         <v>27</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s">
-        <v>23</v>
-      </c>
-      <c r="F138" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
       </c>
       <c r="H138" t="s">
         <v>8</v>
@@ -8323,39 +7069,30 @@
         <v>4</v>
       </c>
       <c r="N138" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O138" t="s">
-        <v>14</v>
-      </c>
-      <c r="P138" t="s">
         <v>18</v>
       </c>
-      <c r="Q138" t="s">
-        <v>19</v>
-      </c>
-      <c r="R138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
       </c>
       <c r="G139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H139" t="s">
         <v>8</v>
@@ -8376,42 +7113,33 @@
         <v>4</v>
       </c>
       <c r="N139" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O139" t="s">
         <v>13</v>
       </c>
-      <c r="P139" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>19</v>
-      </c>
-      <c r="R139" t="s">
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>29</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" t="s">
-        <v>42</v>
-      </c>
-      <c r="F140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G140" t="s">
-        <v>24</v>
       </c>
       <c r="H140" t="s">
         <v>8</v>
@@ -8432,92 +7160,74 @@
         <v>4</v>
       </c>
       <c r="N140" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O140" t="s">
-        <v>14</v>
-      </c>
-      <c r="P140" t="s">
         <v>18</v>
       </c>
-      <c r="Q140" t="s">
-        <v>21</v>
-      </c>
-      <c r="R140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
+        <v>35</v>
+      </c>
+      <c r="H141" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2</v>
+      </c>
+      <c r="K141" t="s">
+        <v>2</v>
+      </c>
+      <c r="L141" t="s">
+        <v>4</v>
+      </c>
+      <c r="M141" t="s">
+        <v>4</v>
+      </c>
+      <c r="N141" t="s">
+        <v>15</v>
+      </c>
+      <c r="O141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
         <v>27</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s">
-        <v>23</v>
-      </c>
-      <c r="F141" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" t="s">
-        <v>38</v>
-      </c>
-      <c r="H141" t="s">
-        <v>8</v>
-      </c>
-      <c r="I141" t="s">
-        <v>39</v>
-      </c>
-      <c r="J141" t="s">
-        <v>2</v>
-      </c>
-      <c r="K141" t="s">
-        <v>2</v>
-      </c>
-      <c r="L141" t="s">
-        <v>4</v>
-      </c>
-      <c r="M141" t="s">
-        <v>4</v>
-      </c>
-      <c r="N141" t="s">
-        <v>2</v>
-      </c>
-      <c r="O141" t="s">
-        <v>15</v>
-      </c>
-      <c r="P141" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>20</v>
-      </c>
-      <c r="R141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>29</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" t="s">
-        <v>41</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
       </c>
       <c r="H142" t="s">
         <v>8</v>
@@ -8538,27 +7248,18 @@
         <v>4</v>
       </c>
       <c r="N142" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O142" t="s">
-        <v>28</v>
-      </c>
-      <c r="P142" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>20</v>
-      </c>
-      <c r="R142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>22</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -8567,7 +7268,7 @@
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>7</v>
@@ -8591,27 +7292,18 @@
         <v>4</v>
       </c>
       <c r="N143" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O143" t="s">
-        <v>13</v>
-      </c>
-      <c r="P143" t="s">
         <v>18</v>
       </c>
-      <c r="Q143" t="s">
-        <v>20</v>
-      </c>
-      <c r="R143" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -8623,7 +7315,7 @@
         <v>6</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H144" t="s">
         <v>8</v>
@@ -8643,17 +7335,8 @@
       <c r="M144" t="s">
         <v>4</v>
       </c>
-      <c r="N144" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -8670,7 +7353,7 @@
         <v>6</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H145" t="s">
         <v>8</v>
@@ -8691,33 +7374,24 @@
         <v>4</v>
       </c>
       <c r="N145" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O145" t="s">
         <v>13</v>
       </c>
-      <c r="P145" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>21</v>
-      </c>
-      <c r="R145" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -8729,7 +7403,7 @@
         <v>8</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J146" t="s">
         <v>2</v>
@@ -8744,27 +7418,18 @@
         <v>4</v>
       </c>
       <c r="N146" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O146" t="s">
-        <v>14</v>
-      </c>
-      <c r="P146" t="s">
         <v>16</v>
       </c>
-      <c r="Q146" t="s">
-        <v>20</v>
-      </c>
-      <c r="R146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -8776,7 +7441,7 @@
         <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8796,34 +7461,25 @@
       <c r="M147" t="s">
         <v>4</v>
       </c>
-      <c r="N147" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>19</v>
-      </c>
-      <c r="R147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
       </c>
       <c r="G148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8831,17 +7487,8 @@
       <c r="I148" t="s">
         <v>11</v>
       </c>
-      <c r="N148" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>20</v>
-      </c>
-      <c r="R148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -8855,10 +7502,10 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G149" t="s">
         <v>7</v>
@@ -8870,22 +7517,13 @@
         <v>10</v>
       </c>
       <c r="N149" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O149" t="s">
-        <v>28</v>
-      </c>
-      <c r="P149" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>20</v>
-      </c>
-      <c r="R149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -8896,95 +7534,77 @@
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H150" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I150" t="s">
         <v>10</v>
       </c>
       <c r="N150" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" t="s">
+        <v>36</v>
+      </c>
+      <c r="N151" t="s">
         <v>15</v>
       </c>
-      <c r="P150" t="s">
+      <c r="O151" t="s">
         <v>16</v>
       </c>
-      <c r="Q150" t="s">
-        <v>19</v>
-      </c>
-      <c r="R150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>40</v>
-      </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" t="s">
         <v>27</v>
-      </c>
-      <c r="C151" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" t="s">
-        <v>41</v>
-      </c>
-      <c r="G151" t="s">
-        <v>24</v>
-      </c>
-      <c r="H151" t="s">
-        <v>25</v>
-      </c>
-      <c r="I151" t="s">
-        <v>39</v>
-      </c>
-      <c r="N151" t="s">
-        <v>2</v>
-      </c>
-      <c r="O151" t="s">
-        <v>15</v>
-      </c>
-      <c r="P151" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>20</v>
-      </c>
-      <c r="R151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8992,37 +7612,28 @@
       <c r="I152" t="s">
         <v>13</v>
       </c>
-      <c r="N152" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>20</v>
-      </c>
-      <c r="R152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
       <c r="B153" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" t="s">
         <v>27</v>
-      </c>
-      <c r="C153" t="s">
-        <v>4</v>
-      </c>
-      <c r="D153" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" t="s">
-        <v>45</v>
-      </c>
-      <c r="F153" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" t="s">
-        <v>30</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -9031,22 +7642,13 @@
         <v>10</v>
       </c>
       <c r="N153" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O153" t="s">
-        <v>15</v>
-      </c>
-      <c r="P153" t="s">
         <v>16</v>
       </c>
-      <c r="Q153" t="s">
-        <v>20</v>
-      </c>
-      <c r="R153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -9057,13 +7659,13 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H154" t="s">
         <v>8</v>
@@ -9072,22 +7674,13 @@
         <v>10</v>
       </c>
       <c r="N154" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O154" t="s">
-        <v>14</v>
-      </c>
-      <c r="P154" t="s">
         <v>18</v>
       </c>
-      <c r="Q154" t="s">
-        <v>21</v>
-      </c>
-      <c r="R154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -9101,21 +7694,21 @@
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H155" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -9124,13 +7717,13 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
       </c>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H156" t="s">
         <v>8</v>
@@ -9139,22 +7732,13 @@
         <v>10</v>
       </c>
       <c r="N156" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O156" t="s">
-        <v>14</v>
-      </c>
-      <c r="P156" t="s">
         <v>18</v>
       </c>
-      <c r="Q156" t="s">
-        <v>20</v>
-      </c>
-      <c r="R156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -9165,83 +7749,65 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H157" t="s">
         <v>8</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N157" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O157" t="s">
-        <v>14</v>
-      </c>
-      <c r="P157" t="s">
         <v>18</v>
       </c>
-      <c r="Q157" t="s">
-        <v>21</v>
-      </c>
-      <c r="R157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H158" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N158" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O158" t="s">
-        <v>15</v>
-      </c>
-      <c r="P158" t="s">
         <v>18</v>
       </c>
-      <c r="Q158" t="s">
-        <v>21</v>
-      </c>
-      <c r="R158" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -9253,7 +7819,7 @@
         <v>6</v>
       </c>
       <c r="G159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -9261,17 +7827,8 @@
       <c r="I159" t="s">
         <v>10</v>
       </c>
-      <c r="N159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>21</v>
-      </c>
-      <c r="R159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -9282,13 +7839,13 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
       </c>
       <c r="G160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -9296,37 +7853,28 @@
       <c r="I160" t="s">
         <v>10</v>
       </c>
-      <c r="N160" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>20</v>
-      </c>
-      <c r="R160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -9335,27 +7883,18 @@
         <v>13</v>
       </c>
       <c r="N161" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O161" t="s">
-        <v>14</v>
-      </c>
-      <c r="P161" t="s">
         <v>18</v>
       </c>
-      <c r="Q161" t="s">
-        <v>20</v>
-      </c>
-      <c r="R161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -9376,22 +7915,13 @@
         <v>10</v>
       </c>
       <c r="N162" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O162" t="s">
-        <v>13</v>
-      </c>
-      <c r="P162" t="s">
         <v>18</v>
       </c>
-      <c r="Q162" t="s">
-        <v>20</v>
-      </c>
-      <c r="R162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -9408,7 +7938,7 @@
         <v>6</v>
       </c>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H163" t="s">
         <v>8</v>
@@ -9417,22 +7947,13 @@
         <v>10</v>
       </c>
       <c r="N163" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O163" t="s">
-        <v>14</v>
-      </c>
-      <c r="P163" t="s">
         <v>18</v>
       </c>
-      <c r="Q163" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -9457,69 +7978,57 @@
       <c r="I164" t="s">
         <v>11</v>
       </c>
-      <c r="N164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>0</v>
       </c>
       <c r="B165" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>21</v>
+      </c>
+      <c r="H165" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" t="s">
+        <v>13</v>
+      </c>
+      <c r="N165" t="s">
+        <v>13</v>
+      </c>
+      <c r="O165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" t="s">
         <v>27</v>
-      </c>
-      <c r="C165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" t="s">
-        <v>6</v>
-      </c>
-      <c r="G165" t="s">
-        <v>24</v>
-      </c>
-      <c r="H165" t="s">
-        <v>8</v>
-      </c>
-      <c r="I165" t="s">
-        <v>13</v>
-      </c>
-      <c r="N165" t="s">
-        <v>2</v>
-      </c>
-      <c r="O165" t="s">
-        <v>13</v>
-      </c>
-      <c r="P165" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>21</v>
-      </c>
-      <c r="R165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>40</v>
-      </c>
-      <c r="B166" t="s">
-        <v>27</v>
-      </c>
-      <c r="C166" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" t="s">
-        <v>50</v>
-      </c>
-      <c r="G166" t="s">
-        <v>30</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9527,22 +8036,13 @@
       <c r="I166" t="s">
         <v>10</v>
       </c>
-      <c r="N166" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -9551,13 +8051,13 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H167" t="s">
         <v>8</v>
@@ -9565,35 +8065,26 @@
       <c r="I167" t="s">
         <v>11</v>
       </c>
-      <c r="N167" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q167" t="s">
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
         <v>21</v>
       </c>
-      <c r="R167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>40</v>
-      </c>
-      <c r="B168" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" t="s">
-        <v>23</v>
-      </c>
-      <c r="F168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
       <c r="H168" t="s">
         <v>8</v>
       </c>
@@ -9601,22 +8092,13 @@
         <v>13</v>
       </c>
       <c r="N168" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O168" t="s">
-        <v>14</v>
-      </c>
-      <c r="P168" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -9627,13 +8109,13 @@
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
       </c>
       <c r="G169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H169" t="s">
         <v>8</v>
@@ -9642,33 +8124,24 @@
         <v>10</v>
       </c>
       <c r="N169" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O169" t="s">
         <v>13</v>
       </c>
-      <c r="P169" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>21</v>
-      </c>
-      <c r="R169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -9683,27 +8156,18 @@
         <v>10</v>
       </c>
       <c r="N170" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O170" t="s">
-        <v>14</v>
-      </c>
-      <c r="P170" t="s">
         <v>18</v>
       </c>
-      <c r="Q170" t="s">
-        <v>20</v>
-      </c>
-      <c r="R170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -9712,10 +8176,10 @@
         <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G171" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H171" t="s">
         <v>8</v>
@@ -9724,22 +8188,13 @@
         <v>13</v>
       </c>
       <c r="N171" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O171" t="s">
-        <v>14</v>
-      </c>
-      <c r="P171" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>20</v>
-      </c>
-      <c r="R171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -9750,16 +8205,16 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
       </c>
       <c r="G172" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H172" t="s">
         <v>8</v>
@@ -9768,63 +8223,45 @@
         <v>10</v>
       </c>
       <c r="N172" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O172" t="s">
-        <v>13</v>
-      </c>
-      <c r="P172" t="s">
         <v>16</v>
       </c>
-      <c r="Q172" t="s">
-        <v>20</v>
-      </c>
-      <c r="R172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
       </c>
       <c r="I173" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N173" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O173" t="s">
-        <v>13</v>
-      </c>
-      <c r="P173" t="s">
         <v>18</v>
       </c>
-      <c r="Q173" t="s">
-        <v>19</v>
-      </c>
-      <c r="R173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -9835,32 +8272,23 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H174" t="s">
         <v>8</v>
       </c>
       <c r="I174" t="s">
-        <v>39</v>
-      </c>
-      <c r="N174" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>20</v>
-      </c>
-      <c r="R174" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O174">
     <sortCondition ref="C1:C174"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B3A0DAC2-E090-DE40-957A-E3CA2B209658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4512BE4D-C1F9-504F-9DFD-DBE014C2D7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results-survey" sheetId="1" r:id="rId1"/>
+    <sheet name="question-short" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2279" uniqueCount="74">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2817" uniqueCount="117">
   <si>
     <t>Männlich</t>
   </si>
@@ -213,40 +214,169 @@
     <t>haben_Sie_tiger</t>
   </si>
   <si>
-    <t>f1Soziodemografisch_erwerb</t>
-  </si>
-  <si>
-    <t>f2Soziodemografisch_nebenerwerb</t>
-  </si>
-  <si>
-    <t>f3Soziodemografisch_stellung</t>
-  </si>
-  <si>
-    <t>f1Verbandsarbeit_wahrnehmung</t>
-  </si>
-  <si>
-    <t>f2Verbandsarbeit_eigenleistung</t>
-  </si>
-  <si>
-    <t>f3Verbandsarbeit_sinnhaftigkeit</t>
-  </si>
-  <si>
-    <t>f1Fuetterung_wöchentlich</t>
-  </si>
-  <si>
-    <t>f2Fuetterung_täglich</t>
-  </si>
-  <si>
-    <t>f4Fuetterung_joghurt</t>
-  </si>
-  <si>
-    <t>f3Fuetterung_anteil_pflanzlich</t>
-  </si>
-  <si>
-    <t>f1Imagearbeit_ist</t>
-  </si>
-  <si>
-    <t>f2Imagearbeit_wahrnehmung</t>
+    <t>f1Soziodemografisch</t>
+  </si>
+  <si>
+    <t>f2Soziodemografisch</t>
+  </si>
+  <si>
+    <t>f3Soziodemografisch</t>
+  </si>
+  <si>
+    <t>f1Verbandsarbeit</t>
+  </si>
+  <si>
+    <t>f2Verbandsarbeit</t>
+  </si>
+  <si>
+    <t>f3Verbandsarbeit</t>
+  </si>
+  <si>
+    <t>f4Verbandsarbeit</t>
+  </si>
+  <si>
+    <t>f1Fuetterung</t>
+  </si>
+  <si>
+    <t>f2Fuetterung</t>
+  </si>
+  <si>
+    <t>f3Fuetterung</t>
+  </si>
+  <si>
+    <t>f4Fuetterung</t>
+  </si>
+  <si>
+    <t>f1Imagearbeit</t>
+  </si>
+  <si>
+    <t>f2Imagearbeit</t>
+  </si>
+  <si>
+    <t>f3Imagearbeit</t>
+  </si>
+  <si>
+    <t>f5Verbandsarbeit</t>
+  </si>
+  <si>
+    <t>ques_id</t>
+  </si>
+  <si>
+    <t>lime_short</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>Welches Geschlecht haben Sie?</t>
+  </si>
+  <si>
+    <t>Wie alt sind Sie?</t>
+  </si>
+  <si>
+    <t>Halten Sie aktuell Tiger oder andere Großkatzen auf Ihrem Erlebnishof?</t>
+  </si>
+  <si>
+    <t>Ist Ihr Erlebnishof Haupterwerb oder Nebenerwerb?</t>
+  </si>
+  <si>
+    <t>Haben Sie weitere Erwerbsquellen neben dem Erlebnishof außer Landwirtschaft?</t>
+  </si>
+  <si>
+    <t>Wie oft lesen Sie den Newsletter auf der Verbandshomepage?</t>
+  </si>
+  <si>
+    <t>Halten Sie die Verbandsarbeit für sinnvoll?</t>
+  </si>
+  <si>
+    <t>Sehen Sie die Haltung von Großkatzen als eine Bereicherung?</t>
+  </si>
+  <si>
+    <t>Füttern Sie Joghurt?</t>
+  </si>
+  <si>
+    <t>Füttern Sie pflanzlich oder vegan?</t>
+  </si>
+  <si>
+    <t>Wie zufrieden sind Sie mit der Lobbyarbeit des Verbandes in Berlin?</t>
+  </si>
+  <si>
+    <t>Wir aktiv sind Sie in der Vermarktung von anderen Großtieren, wie Bären oder Elefanten, in den sozialen Netzwerken?</t>
+  </si>
+  <si>
+    <t>Welche Stellung haben Sie auf dem Erlebnishof inne?</t>
+  </si>
+  <si>
+    <t>König</t>
+  </si>
+  <si>
+    <t>Wir aktiv sind Sie in der positiven Vermarktung des Verbandes in sozialen Netzwerken?</t>
+  </si>
+  <si>
+    <t>Sehen Sie die Notwendigkeit von genetisch veränderten Großkatzen für die Steigerung der Attraktivität?</t>
+  </si>
+  <si>
+    <t>Wie präsent nehmen Sie die Verbandsarbeit in der Bundespolitik war?</t>
+  </si>
+  <si>
+    <t>Füttern Sie täglich Kellog's Frosties?</t>
+  </si>
+  <si>
+    <t>Füttern Sie wöchentlich Batzen?</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1232,7 @@
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1134,22 +1264,31 @@
         <v>68</v>
       </c>
       <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
       </c>
       <c r="M1" t="s">
         <v>70</v>
       </c>
       <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1172,16 +1311,16 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1190,13 +1329,22 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1219,28 +1367,37 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1263,28 +1420,37 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
       </c>
       <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1304,31 +1470,37 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1351,31 +1523,40 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1398,31 +1579,40 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1445,16 +1635,16 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
         <v>2</v>
@@ -1463,13 +1653,22 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1492,22 +1691,31 @@
         <v>9</v>
       </c>
       <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1527,31 +1735,40 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1571,31 +1788,37 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1615,16 +1838,16 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
@@ -1633,13 +1856,22 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
         <v>25</v>
       </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1659,31 +1891,40 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
       </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
       <c r="K13" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
         <v>14</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1706,16 +1947,16 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
@@ -1724,13 +1965,22 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
         <v>25</v>
       </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1750,31 +2000,40 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
       <c r="J15" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1797,28 +2056,37 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="s">
         <v>2</v>
       </c>
       <c r="N16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
         <v>14</v>
       </c>
-      <c r="O16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1841,28 +2109,37 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1882,31 +2159,40 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
         <v>14</v>
       </c>
-      <c r="O18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1926,16 +2212,16 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
         <v>2</v>
@@ -1944,13 +2230,22 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
         <v>25</v>
       </c>
-      <c r="O19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1970,31 +2265,40 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2017,22 +2321,28 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
         <v>11</v>
       </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
       <c r="K21" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2055,22 +2365,31 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2093,16 +2412,16 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
         <v>34</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>36</v>
       </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
       <c r="K23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
         <v>2</v>
@@ -2111,13 +2430,22 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
         <v>15</v>
       </c>
-      <c r="O23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2140,28 +2468,37 @@
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2184,22 +2521,31 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2222,22 +2568,31 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2260,31 +2615,37 @@
         <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K27" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="s">
         <v>2</v>
       </c>
       <c r="N27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
         <v>14</v>
       </c>
-      <c r="O27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2307,28 +2668,37 @@
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="s">
         <v>4</v>
       </c>
       <c r="N28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" t="s">
         <v>15</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2342,37 +2712,43 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K29" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
       </c>
       <c r="M29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" t="s">
         <v>25</v>
       </c>
-      <c r="O29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -2395,22 +2771,31 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
       <c r="K30" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2433,25 +2818,34 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2474,28 +2868,31 @@
         <v>9</v>
       </c>
       <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
         <v>36</v>
       </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2</v>
-      </c>
       <c r="L32" t="s">
         <v>2</v>
       </c>
       <c r="M32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
         <v>14</v>
       </c>
-      <c r="O32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2515,31 +2912,37 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
         <v>12</v>
       </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
       <c r="K33" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" t="s">
         <v>25</v>
       </c>
-      <c r="O33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2559,31 +2962,37 @@
         <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="J34" t="s">
-        <v>4</v>
-      </c>
       <c r="K34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" t="s">
         <v>4</v>
       </c>
       <c r="N34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" t="s">
         <v>29</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2603,16 +3012,16 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
         <v>2</v>
@@ -2621,13 +3030,22 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
         <v>15</v>
       </c>
-      <c r="O35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2647,31 +3065,40 @@
         <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
         <v>36</v>
       </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
       <c r="K36" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" t="s">
         <v>14</v>
       </c>
-      <c r="O36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2691,31 +3118,40 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="J37" t="s">
-        <v>4</v>
-      </c>
       <c r="K37" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L37" t="s">
         <v>4</v>
       </c>
       <c r="M37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" t="s">
         <v>25</v>
       </c>
-      <c r="O37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2735,31 +3171,37 @@
         <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K38" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
         <v>14</v>
       </c>
-      <c r="O38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2779,16 +3221,16 @@
         <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
         <v>36</v>
       </c>
-      <c r="J39" t="s">
-        <v>2</v>
-      </c>
       <c r="K39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L39" t="s">
         <v>2</v>
@@ -2797,13 +3239,19 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" t="s">
         <v>15</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2823,25 +3271,34 @@
         <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
         <v>36</v>
       </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
       <c r="K40" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2861,31 +3318,40 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
         <v>11</v>
       </c>
-      <c r="J41" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" t="s">
         <v>14</v>
       </c>
-      <c r="O41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2908,13 +3374,13 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L42" t="s">
         <v>4</v>
@@ -2923,13 +3389,22 @@
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2952,13 +3427,13 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L43" t="s">
         <v>2</v>
@@ -2967,13 +3442,22 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" t="s">
         <v>14</v>
       </c>
-      <c r="O43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2999,22 +3483,31 @@
         <v>8</v>
       </c>
       <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
         <v>36</v>
       </c>
-      <c r="J44" t="s">
-        <v>2</v>
-      </c>
       <c r="K44" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3028,37 +3521,46 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="G45" t="s">
         <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
         <v>11</v>
       </c>
-      <c r="J45" t="s">
-        <v>2</v>
-      </c>
       <c r="K45" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" t="s">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3081,28 +3583,37 @@
         <v>8</v>
       </c>
       <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" t="s">
         <v>36</v>
       </c>
-      <c r="J46" t="s">
-        <v>2</v>
-      </c>
       <c r="K46" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" t="s">
         <v>2</v>
       </c>
       <c r="N46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" t="s">
         <v>14</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3125,22 +3636,31 @@
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3163,31 +3683,37 @@
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K48" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L48" t="s">
         <v>2</v>
       </c>
       <c r="M48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3207,31 +3733,40 @@
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" t="s">
         <v>36</v>
       </c>
-      <c r="J49" t="s">
-        <v>2</v>
-      </c>
       <c r="K49" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="s">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>18</v>
+      </c>
+      <c r="R49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3251,31 +3786,40 @@
         <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J50" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K50" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" t="s">
         <v>2</v>
       </c>
       <c r="N50" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" t="s">
         <v>14</v>
       </c>
-      <c r="O50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3298,28 +3842,37 @@
         <v>22</v>
       </c>
       <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
         <v>36</v>
       </c>
-      <c r="J51" t="s">
-        <v>2</v>
-      </c>
       <c r="K51" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
         <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>4</v>
+      </c>
+      <c r="P51" t="s">
         <v>14</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3339,31 +3892,40 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J52" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" t="s">
         <v>2</v>
       </c>
       <c r="N52" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" t="s">
         <v>14</v>
       </c>
-      <c r="O52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3383,31 +3945,40 @@
         <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K53" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L53" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
         <v>14</v>
       </c>
-      <c r="O53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>13</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3427,31 +3998,37 @@
         <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J54" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N54" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" t="s">
         <v>14</v>
       </c>
-      <c r="O54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3474,28 +4051,37 @@
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J55" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K55" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L55" t="s">
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3521,28 +4107,37 @@
         <v>8</v>
       </c>
       <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" t="s">
         <v>11</v>
       </c>
-      <c r="J56" t="s">
-        <v>4</v>
-      </c>
       <c r="K56" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L56" t="s">
         <v>4</v>
       </c>
       <c r="M56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>18</v>
+      </c>
+      <c r="R56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3562,16 +4157,16 @@
         <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J57" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L57" t="s">
         <v>2</v>
@@ -3580,13 +4175,19 @@
         <v>4</v>
       </c>
       <c r="N57" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" t="s">
         <v>14</v>
       </c>
-      <c r="O57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3606,31 +4207,40 @@
         <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J58" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K58" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P58" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>18</v>
+      </c>
+      <c r="R58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3653,13 +4263,13 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K59" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L59" t="s">
         <v>2</v>
@@ -3668,13 +4278,22 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" t="s">
         <v>14</v>
       </c>
-      <c r="O59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q59" t="s">
+        <v>13</v>
+      </c>
+      <c r="R59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3697,22 +4316,31 @@
         <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K60" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3735,28 +4363,37 @@
         <v>8</v>
       </c>
       <c r="I61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K61" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" t="s">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>13</v>
+      </c>
+      <c r="R61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3776,31 +4413,40 @@
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" t="s">
         <v>14</v>
       </c>
-      <c r="O62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3820,31 +4466,40 @@
         <v>35</v>
       </c>
       <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
         <v>22</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>36</v>
       </c>
-      <c r="J63" t="s">
-        <v>2</v>
-      </c>
       <c r="K63" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L63" t="s">
         <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>4</v>
+      </c>
+      <c r="P63" t="s">
         <v>15</v>
       </c>
-      <c r="O63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q63" t="s">
+        <v>18</v>
+      </c>
+      <c r="R63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3864,16 +4519,16 @@
         <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J64" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K64" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L64" t="s">
         <v>2</v>
@@ -3882,13 +4537,22 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>4</v>
+      </c>
+      <c r="P64" t="s">
         <v>14</v>
       </c>
-      <c r="O64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3914,28 +4578,37 @@
         <v>8</v>
       </c>
       <c r="I65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J65" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K65" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65" t="s">
         <v>2</v>
       </c>
       <c r="N65" t="s">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" t="s">
         <v>14</v>
       </c>
-      <c r="O65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q65" t="s">
+        <v>18</v>
+      </c>
+      <c r="R65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3955,31 +4628,40 @@
         <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" t="s">
         <v>36</v>
       </c>
-      <c r="J66" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L66" t="s">
         <v>4</v>
       </c>
       <c r="M66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P66" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>18</v>
+      </c>
+      <c r="R66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -3995,8 +4677,17 @@
       <c r="F67" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" t="s">
+        <v>11</v>
+      </c>
+      <c r="R67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -4019,28 +4710,37 @@
         <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J68" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K68" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L68" t="s">
         <v>4</v>
       </c>
       <c r="M68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>4</v>
+      </c>
+      <c r="P68" t="s">
         <v>15</v>
       </c>
-      <c r="O68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>18</v>
+      </c>
+      <c r="R68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -4063,13 +4763,13 @@
         <v>22</v>
       </c>
       <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
         <v>36</v>
       </c>
-      <c r="J69" t="s">
-        <v>2</v>
-      </c>
       <c r="K69" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L69" t="s">
         <v>2</v>
@@ -4078,13 +4778,22 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>2</v>
+      </c>
+      <c r="P69" t="s">
         <v>14</v>
       </c>
-      <c r="O69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
+        <v>13</v>
+      </c>
+      <c r="R69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -4107,31 +4816,37 @@
         <v>21</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K70" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L70" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P70" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4154,28 +4869,34 @@
         <v>9</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J71" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="s">
         <v>2</v>
       </c>
       <c r="N71" t="s">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>2</v>
+      </c>
+      <c r="P71" t="s">
         <v>14</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4195,16 +4916,16 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J72" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K72" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L72" t="s">
         <v>2</v>
@@ -4213,13 +4934,22 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>2</v>
+      </c>
+      <c r="P72" t="s">
         <v>14</v>
       </c>
-      <c r="O72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4239,31 +4969,37 @@
         <v>7</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K73" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L73" t="s">
         <v>2</v>
       </c>
       <c r="M73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N73" t="s">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>4</v>
+      </c>
+      <c r="P73" t="s">
         <v>25</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +5013,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s">
         <v>7</v>
@@ -4286,28 +5022,37 @@
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K74" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L74" t="s">
         <v>4</v>
       </c>
       <c r="M74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>4</v>
+      </c>
+      <c r="P74" t="s">
         <v>14</v>
       </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -4327,31 +5072,40 @@
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J75" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K75" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" t="s">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P75" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>13</v>
+      </c>
+      <c r="R75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -4377,22 +5131,31 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" t="s">
         <v>12</v>
       </c>
-      <c r="J76" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L76" t="s">
         <v>4</v>
       </c>
       <c r="M76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4415,22 +5178,31 @@
         <v>9</v>
       </c>
       <c r="I77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J77" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K77" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4450,31 +5222,40 @@
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I78" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" t="s">
         <v>12</v>
       </c>
-      <c r="J78" t="s">
-        <v>2</v>
-      </c>
       <c r="K78" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P78" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4497,28 +5278,37 @@
         <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K79" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L79" t="s">
         <v>2</v>
       </c>
       <c r="M79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79" t="s">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>4</v>
+      </c>
+      <c r="P79" t="s">
         <v>14</v>
       </c>
-      <c r="O79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q79" t="s">
+        <v>18</v>
+      </c>
+      <c r="R79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -4540,32 +5330,32 @@
       <c r="G80" t="s">
         <v>7</v>
       </c>
-      <c r="H80" t="s">
-        <v>8</v>
-      </c>
       <c r="I80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J80" t="s">
-        <v>2</v>
-      </c>
-      <c r="K80" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L80" t="s">
         <v>2</v>
       </c>
       <c r="M80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N80" t="s">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>4</v>
+      </c>
+      <c r="P80" t="s">
         <v>15</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -4585,16 +5375,16 @@
         <v>21</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J81" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K81" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L81" t="s">
         <v>2</v>
@@ -4603,13 +5393,22 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" t="s">
         <v>14</v>
       </c>
-      <c r="O81" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q81" t="s">
+        <v>18</v>
+      </c>
+      <c r="R81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -4632,22 +5431,31 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
         <v>11</v>
       </c>
-      <c r="J82" t="s">
-        <v>2</v>
-      </c>
       <c r="K82" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>2</v>
+      </c>
+      <c r="R82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -4670,22 +5478,31 @@
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J83" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K83" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>2</v>
+      </c>
+      <c r="R83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -4708,28 +5525,37 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K84" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>4</v>
+      </c>
+      <c r="P84" t="s">
         <v>14</v>
       </c>
-      <c r="O84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q84" t="s">
+        <v>18</v>
+      </c>
+      <c r="R84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4752,31 +5578,40 @@
         <v>21</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J85" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K85" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L85" t="s">
         <v>2</v>
       </c>
       <c r="M85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N85" t="s">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>4</v>
+      </c>
+      <c r="P85" t="s">
         <v>14</v>
       </c>
-      <c r="O85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q85" t="s">
+        <v>18</v>
+      </c>
+      <c r="R85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4796,31 +5631,40 @@
         <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J86" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L86" t="s">
         <v>2</v>
       </c>
       <c r="M86" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P86" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>13</v>
+      </c>
+      <c r="R86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -4840,31 +5684,40 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" t="s">
         <v>11</v>
       </c>
-      <c r="J87" t="s">
-        <v>2</v>
-      </c>
       <c r="K87" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L87" t="s">
         <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P87" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4887,13 +5740,13 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J88" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K88" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L88" t="s">
         <v>4</v>
@@ -4902,13 +5755,22 @@
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P88" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>13</v>
+      </c>
+      <c r="R88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4931,22 +5793,31 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" t="s">
         <v>11</v>
       </c>
-      <c r="J89" t="s">
-        <v>2</v>
-      </c>
       <c r="K89" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L89" t="s">
         <v>2</v>
       </c>
       <c r="M89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -4966,31 +5837,37 @@
         <v>21</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J90" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K90" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L90" t="s">
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N90" t="s">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>4</v>
+      </c>
+      <c r="P90" t="s">
         <v>15</v>
       </c>
-      <c r="O90" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5013,28 +5890,37 @@
         <v>9</v>
       </c>
       <c r="I91" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" t="s">
         <v>11</v>
       </c>
-      <c r="J91" t="s">
-        <v>2</v>
-      </c>
       <c r="K91" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N91" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" t="s">
         <v>25</v>
       </c>
-      <c r="O91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q91" t="s">
+        <v>13</v>
+      </c>
+      <c r="R91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5057,28 +5943,34 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" t="s">
         <v>11</v>
       </c>
-      <c r="J92" t="s">
-        <v>4</v>
-      </c>
       <c r="K92" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L92" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N92" t="s">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>4</v>
+      </c>
+      <c r="P92" t="s">
         <v>15</v>
       </c>
-      <c r="O92" t="s">
+      <c r="Q92" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5098,31 +5990,40 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J93" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K93" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L93" t="s">
         <v>4</v>
       </c>
       <c r="M93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N93" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>4</v>
+      </c>
+      <c r="P93" t="s">
         <v>14</v>
       </c>
-      <c r="O93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q93" t="s">
+        <v>18</v>
+      </c>
+      <c r="R93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5142,31 +6043,40 @@
         <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I94" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" t="s">
         <v>11</v>
       </c>
-      <c r="J94" t="s">
-        <v>2</v>
-      </c>
       <c r="K94" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L94" t="s">
         <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N94" t="s">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" t="s">
         <v>25</v>
       </c>
-      <c r="O94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q94" t="s">
+        <v>13</v>
+      </c>
+      <c r="R94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -5192,13 +6102,13 @@
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J95" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K95" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L95" t="s">
         <v>2</v>
@@ -5207,13 +6117,22 @@
         <v>2</v>
       </c>
       <c r="N95" t="s">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>2</v>
+      </c>
+      <c r="P95" t="s">
         <v>14</v>
       </c>
-      <c r="O95" t="s">
+      <c r="Q95" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5239,13 +6158,13 @@
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K96" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L96" t="s">
         <v>2</v>
@@ -5254,13 +6173,22 @@
         <v>4</v>
       </c>
       <c r="N96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>4</v>
+      </c>
+      <c r="P96" t="s">
         <v>15</v>
       </c>
-      <c r="O96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q96" t="s">
+        <v>18</v>
+      </c>
+      <c r="R96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5280,16 +6208,16 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
         <v>22</v>
       </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
       <c r="J97" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L97" t="s">
         <v>2</v>
@@ -5298,13 +6226,22 @@
         <v>2</v>
       </c>
       <c r="N97" t="s">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>2</v>
+      </c>
+      <c r="P97" t="s">
         <v>25</v>
       </c>
-      <c r="O97" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q97" t="s">
+        <v>18</v>
+      </c>
+      <c r="R97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -5324,31 +6261,37 @@
         <v>35</v>
       </c>
       <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
         <v>22</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>36</v>
       </c>
-      <c r="J98" t="s">
-        <v>2</v>
-      </c>
       <c r="K98" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M98" t="s">
         <v>2</v>
       </c>
       <c r="N98" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>2</v>
+      </c>
+      <c r="P98" t="s">
         <v>14</v>
       </c>
-      <c r="O98" t="s">
+      <c r="Q98" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5368,31 +6311,37 @@
         <v>21</v>
       </c>
       <c r="H99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J99" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K99" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L99" t="s">
         <v>2</v>
       </c>
       <c r="M99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N99" t="s">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>4</v>
+      </c>
+      <c r="P99" t="s">
         <v>14</v>
       </c>
-      <c r="O99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5415,13 +6364,13 @@
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J100" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K100" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L100" t="s">
         <v>4</v>
@@ -5430,13 +6379,22 @@
         <v>4</v>
       </c>
       <c r="N100" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" t="s">
         <v>14</v>
       </c>
-      <c r="O100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q100" t="s">
+        <v>18</v>
+      </c>
+      <c r="R100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -5459,28 +6417,37 @@
         <v>9</v>
       </c>
       <c r="I101" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" t="s">
         <v>11</v>
       </c>
-      <c r="J101" t="s">
-        <v>2</v>
-      </c>
       <c r="K101" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M101" t="s">
         <v>2</v>
       </c>
       <c r="N101" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>2</v>
+      </c>
+      <c r="P101" t="s">
         <v>25</v>
       </c>
-      <c r="O101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q101" t="s">
+        <v>18</v>
+      </c>
+      <c r="R101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5503,28 +6470,37 @@
         <v>9</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J102" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K102" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L102" t="s">
         <v>4</v>
       </c>
       <c r="M102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N102" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" t="s">
         <v>25</v>
       </c>
-      <c r="O102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q102" t="s">
+        <v>13</v>
+      </c>
+      <c r="R102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -5544,31 +6520,40 @@
         <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J103" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K103" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L103" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N103" t="s">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>2</v>
+      </c>
+      <c r="P103" t="s">
         <v>14</v>
       </c>
-      <c r="O103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q103" t="s">
+        <v>18</v>
+      </c>
+      <c r="R103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -5591,28 +6576,37 @@
         <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J104" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K104" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L104" t="s">
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N104" t="s">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>4</v>
+      </c>
+      <c r="P104" t="s">
         <v>14</v>
       </c>
-      <c r="O104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q104" t="s">
+        <v>13</v>
+      </c>
+      <c r="R104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -5635,16 +6629,16 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J105" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K105" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L105" t="s">
         <v>2</v>
@@ -5653,13 +6647,19 @@
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P105" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -5682,13 +6682,13 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J106" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K106" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L106" t="s">
         <v>2</v>
@@ -5697,13 +6697,22 @@
         <v>4</v>
       </c>
       <c r="N106" t="s">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>4</v>
+      </c>
+      <c r="P106" t="s">
         <v>29</v>
       </c>
-      <c r="O106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q106" t="s">
+        <v>13</v>
+      </c>
+      <c r="R106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -5723,25 +6732,31 @@
         <v>27</v>
       </c>
       <c r="H107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I107" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" t="s">
         <v>11</v>
       </c>
-      <c r="J107" t="s">
-        <v>4</v>
-      </c>
       <c r="K107" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L107" t="s">
         <v>4</v>
       </c>
       <c r="M107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -5761,31 +6776,37 @@
         <v>21</v>
       </c>
       <c r="H108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J108" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K108" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N108" t="s">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>4</v>
+      </c>
+      <c r="P108" t="s">
         <v>29</v>
       </c>
-      <c r="O108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -5808,22 +6829,31 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J109" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K109" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N109" t="s">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>4</v>
+      </c>
+      <c r="R109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -5843,31 +6873,37 @@
         <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I110" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J110" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K110" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L110" t="s">
         <v>2</v>
       </c>
       <c r="M110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O110" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P110" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -5887,31 +6923,40 @@
         <v>27</v>
       </c>
       <c r="H111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" t="s">
         <v>11</v>
       </c>
-      <c r="J111" t="s">
-        <v>4</v>
-      </c>
       <c r="K111" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L111" t="s">
         <v>4</v>
       </c>
       <c r="M111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P111" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>13</v>
+      </c>
+      <c r="R111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -5937,22 +6982,31 @@
         <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J112" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K112" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L112" t="s">
         <v>2</v>
       </c>
       <c r="M112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>4</v>
+      </c>
+      <c r="R112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -5972,31 +7026,40 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J113" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K113" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L113" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M113" t="s">
         <v>4</v>
       </c>
       <c r="N113" t="s">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>4</v>
+      </c>
+      <c r="P113" t="s">
         <v>14</v>
       </c>
-      <c r="O113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q113" t="s">
+        <v>13</v>
+      </c>
+      <c r="R113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6022,28 +7085,37 @@
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J114" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K114" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L114" t="s">
         <v>2</v>
       </c>
       <c r="M114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N114" t="s">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>4</v>
+      </c>
+      <c r="P114" t="s">
         <v>29</v>
       </c>
-      <c r="O114" t="s">
+      <c r="Q114" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6063,16 +7135,16 @@
         <v>35</v>
       </c>
       <c r="H115" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" t="s">
         <v>22</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>36</v>
       </c>
-      <c r="J115" t="s">
-        <v>2</v>
-      </c>
       <c r="K115" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L115" t="s">
         <v>2</v>
@@ -6081,13 +7153,22 @@
         <v>4</v>
       </c>
       <c r="N115" t="s">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>4</v>
+      </c>
+      <c r="P115" t="s">
         <v>15</v>
       </c>
-      <c r="O115" t="s">
+      <c r="Q115" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -6110,22 +7191,31 @@
         <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J116" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K116" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L116" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M116" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N116" t="s">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>2</v>
+      </c>
+      <c r="R116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6139,7 +7229,7 @@
         <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
@@ -6148,28 +7238,37 @@
         <v>22</v>
       </c>
       <c r="I117" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K117" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M117" t="s">
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P117" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>18</v>
+      </c>
+      <c r="R117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6192,31 +7291,40 @@
         <v>27</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J118" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K118" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L118" t="s">
         <v>4</v>
       </c>
       <c r="M118" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N118" t="s">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>2</v>
+      </c>
+      <c r="P118" t="s">
         <v>25</v>
       </c>
-      <c r="O118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q118" t="s">
+        <v>13</v>
+      </c>
+      <c r="R118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6239,22 +7347,31 @@
         <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J119" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K119" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L119" t="s">
         <v>2</v>
       </c>
       <c r="M119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N119" t="s">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>4</v>
+      </c>
+      <c r="R119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -6277,22 +7394,31 @@
         <v>8</v>
       </c>
       <c r="I120" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J120" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K120" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L120" t="s">
         <v>2</v>
       </c>
       <c r="M120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N120" t="s">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>4</v>
+      </c>
+      <c r="R120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6315,28 +7441,37 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J121" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K121" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L121" t="s">
         <v>2</v>
       </c>
       <c r="M121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N121" t="s">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>4</v>
+      </c>
+      <c r="P121" t="s">
         <v>14</v>
       </c>
-      <c r="O121" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q121" t="s">
+        <v>18</v>
+      </c>
+      <c r="R121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6356,31 +7491,40 @@
         <v>32</v>
       </c>
       <c r="H122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J122" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K122" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L122" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N122" t="s">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>4</v>
+      </c>
+      <c r="P122" t="s">
         <v>25</v>
       </c>
-      <c r="O122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q122" t="s">
+        <v>13</v>
+      </c>
+      <c r="R122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6400,31 +7544,40 @@
         <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J123" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K123" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L123" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>4</v>
+      </c>
+      <c r="P123" t="s">
         <v>15</v>
       </c>
-      <c r="O123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q123" t="s">
+        <v>18</v>
+      </c>
+      <c r="R123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6447,22 +7600,31 @@
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J124" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K124" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N124" t="s">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>4</v>
+      </c>
+      <c r="R124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6485,28 +7647,37 @@
         <v>9</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J125" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K125" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L125" t="s">
         <v>2</v>
       </c>
       <c r="M125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N125" t="s">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>4</v>
+      </c>
+      <c r="P125" t="s">
         <v>14</v>
       </c>
-      <c r="O125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q125" t="s">
+        <v>18</v>
+      </c>
+      <c r="R125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6526,31 +7697,40 @@
         <v>27</v>
       </c>
       <c r="H126" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I126" t="s">
+        <v>8</v>
+      </c>
+      <c r="J126" t="s">
         <v>12</v>
       </c>
-      <c r="J126" t="s">
-        <v>2</v>
-      </c>
       <c r="K126" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L126" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M126" t="s">
         <v>4</v>
       </c>
       <c r="N126" t="s">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>4</v>
+      </c>
+      <c r="P126" t="s">
         <v>29</v>
       </c>
-      <c r="O126" t="s">
+      <c r="Q126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6573,28 +7753,37 @@
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J127" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K127" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N127" t="s">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>4</v>
+      </c>
+      <c r="P127" t="s">
         <v>14</v>
       </c>
-      <c r="O127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q127" t="s">
+        <v>18</v>
+      </c>
+      <c r="R127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6620,28 +7809,34 @@
         <v>9</v>
       </c>
       <c r="I128" t="s">
+        <v>9</v>
+      </c>
+      <c r="J128" t="s">
         <v>36</v>
       </c>
-      <c r="J128" t="s">
-        <v>4</v>
-      </c>
       <c r="K128" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N128" t="s">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>4</v>
+      </c>
+      <c r="P128" t="s">
         <v>15</v>
       </c>
-      <c r="O128" t="s">
+      <c r="Q128" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6661,31 +7856,40 @@
         <v>27</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" t="s">
         <v>11</v>
       </c>
-      <c r="J129" t="s">
-        <v>2</v>
-      </c>
       <c r="K129" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M129" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N129" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P129" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>13</v>
+      </c>
+      <c r="R129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6705,31 +7909,37 @@
         <v>21</v>
       </c>
       <c r="H130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J130" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K130" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N130" t="s">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>4</v>
+      </c>
+      <c r="P130" t="s">
         <v>14</v>
       </c>
-      <c r="O130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6755,22 +7965,31 @@
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J131" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K131" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L131" t="s">
         <v>2</v>
       </c>
       <c r="M131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N131" t="s">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>4</v>
+      </c>
+      <c r="R131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6796,13 +8015,13 @@
         <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J132" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K132" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L132" t="s">
         <v>4</v>
@@ -6811,13 +8030,22 @@
         <v>2</v>
       </c>
       <c r="N132" t="s">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>2</v>
+      </c>
+      <c r="P132" t="s">
         <v>14</v>
       </c>
-      <c r="O132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q132" t="s">
+        <v>18</v>
+      </c>
+      <c r="R132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6840,25 +8068,31 @@
         <v>27</v>
       </c>
       <c r="H133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J133" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K133" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L133" t="s">
         <v>4</v>
       </c>
       <c r="M133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="N133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -6881,31 +8115,40 @@
         <v>21</v>
       </c>
       <c r="H134" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" t="s">
         <v>22</v>
       </c>
-      <c r="I134" t="s">
-        <v>10</v>
-      </c>
       <c r="J134" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K134" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L134" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N134" t="s">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P134" t="s">
         <v>14</v>
       </c>
-      <c r="O134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q134" t="s">
+        <v>18</v>
+      </c>
+      <c r="R134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -6925,16 +8168,16 @@
         <v>21</v>
       </c>
       <c r="H135" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I135" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J135" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K135" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L135" t="s">
         <v>2</v>
@@ -6942,8 +8185,17 @@
       <c r="M135" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N135" t="s">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>4</v>
+      </c>
+      <c r="R135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -6963,31 +8215,40 @@
         <v>21</v>
       </c>
       <c r="H136" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J136" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K136" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L136" t="s">
         <v>2</v>
       </c>
       <c r="M136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N136" t="s">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>4</v>
+      </c>
+      <c r="P136" t="s">
         <v>14</v>
       </c>
-      <c r="O136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q136" t="s">
+        <v>18</v>
+      </c>
+      <c r="R136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -7007,31 +8268,37 @@
         <v>21</v>
       </c>
       <c r="H137" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J137" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K137" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L137" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M137" t="s">
         <v>2</v>
       </c>
       <c r="N137" t="s">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>2</v>
+      </c>
+      <c r="P137" t="s">
         <v>14</v>
       </c>
-      <c r="O137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -7054,13 +8321,13 @@
         <v>8</v>
       </c>
       <c r="I138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K138" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L138" t="s">
         <v>4</v>
@@ -7069,13 +8336,22 @@
         <v>4</v>
       </c>
       <c r="N138" t="s">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>4</v>
+      </c>
+      <c r="P138" t="s">
         <v>14</v>
       </c>
-      <c r="O138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q138" t="s">
+        <v>18</v>
+      </c>
+      <c r="R138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -7095,31 +8371,40 @@
         <v>21</v>
       </c>
       <c r="H139" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J139" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K139" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M139" t="s">
         <v>4</v>
       </c>
       <c r="N139" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P139" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>13</v>
+      </c>
+      <c r="R139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -7142,31 +8427,40 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J140" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K140" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L140" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M140" t="s">
         <v>4</v>
       </c>
       <c r="N140" t="s">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>4</v>
+      </c>
+      <c r="P140" t="s">
         <v>14</v>
       </c>
-      <c r="O140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q140" t="s">
+        <v>18</v>
+      </c>
+      <c r="R140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -7186,31 +8480,37 @@
         <v>35</v>
       </c>
       <c r="H141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I141" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" t="s">
         <v>36</v>
       </c>
-      <c r="J141" t="s">
-        <v>2</v>
-      </c>
       <c r="K141" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N141" t="s">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>4</v>
+      </c>
+      <c r="P141" t="s">
         <v>15</v>
       </c>
-      <c r="O141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -7230,31 +8530,37 @@
         <v>27</v>
       </c>
       <c r="H142" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I142" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" t="s">
         <v>11</v>
       </c>
-      <c r="J142" t="s">
-        <v>2</v>
-      </c>
       <c r="K142" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N142" t="s">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>4</v>
+      </c>
+      <c r="P142" t="s">
         <v>25</v>
       </c>
-      <c r="O142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7274,31 +8580,40 @@
         <v>7</v>
       </c>
       <c r="H143" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I143" t="s">
+        <v>9</v>
+      </c>
+      <c r="J143" t="s">
         <v>12</v>
       </c>
-      <c r="J143" t="s">
-        <v>2</v>
-      </c>
       <c r="K143" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N143" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P143" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>18</v>
+      </c>
+      <c r="R143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7318,16 +8633,16 @@
         <v>27</v>
       </c>
       <c r="H144" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J144" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K144" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L144" t="s">
         <v>2</v>
@@ -7335,8 +8650,17 @@
       <c r="M144" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N144" t="s">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>4</v>
+      </c>
+      <c r="R144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7359,13 +8683,13 @@
         <v>8</v>
       </c>
       <c r="I145" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" t="s">
         <v>11</v>
       </c>
-      <c r="J145" t="s">
-        <v>4</v>
-      </c>
       <c r="K145" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L145" t="s">
         <v>4</v>
@@ -7374,13 +8698,22 @@
         <v>4</v>
       </c>
       <c r="N145" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P145" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>13</v>
+      </c>
+      <c r="R145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7400,31 +8733,37 @@
         <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I146" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" t="s">
         <v>36</v>
       </c>
-      <c r="J146" t="s">
-        <v>2</v>
-      </c>
       <c r="K146" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L146" t="s">
         <v>2</v>
       </c>
       <c r="M146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N146" t="s">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>4</v>
+      </c>
+      <c r="P146" t="s">
         <v>14</v>
       </c>
-      <c r="O146" t="s">
+      <c r="Q146" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7447,22 +8786,31 @@
         <v>9</v>
       </c>
       <c r="I147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J147" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K147" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M147" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N147" t="s">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>4</v>
+      </c>
+      <c r="R147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7485,10 +8833,19 @@
         <v>9</v>
       </c>
       <c r="I148" t="s">
+        <v>9</v>
+      </c>
+      <c r="J148" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K148" t="s">
+        <v>13</v>
+      </c>
+      <c r="R148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7514,16 +8871,25 @@
         <v>9</v>
       </c>
       <c r="I149" t="s">
-        <v>10</v>
-      </c>
-      <c r="N149" t="s">
+        <v>9</v>
+      </c>
+      <c r="J149" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" t="s">
+        <v>13</v>
+      </c>
+      <c r="P149" t="s">
         <v>25</v>
       </c>
-      <c r="O149" t="s">
+      <c r="Q149" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7543,19 +8909,28 @@
         <v>35</v>
       </c>
       <c r="H150" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" t="s">
         <v>22</v>
       </c>
-      <c r="I150" t="s">
-        <v>10</v>
-      </c>
-      <c r="N150" t="s">
+      <c r="J150" t="s">
+        <v>10</v>
+      </c>
+      <c r="K150" t="s">
+        <v>12</v>
+      </c>
+      <c r="P150" t="s">
         <v>15</v>
       </c>
-      <c r="O150" t="s">
+      <c r="Q150" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -7575,19 +8950,28 @@
         <v>21</v>
       </c>
       <c r="H151" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
         <v>22</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>36</v>
       </c>
-      <c r="N151" t="s">
+      <c r="K151" t="s">
+        <v>10</v>
+      </c>
+      <c r="P151" t="s">
         <v>15</v>
       </c>
-      <c r="O151" t="s">
+      <c r="Q151" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7610,10 +8994,19 @@
         <v>9</v>
       </c>
       <c r="I152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J152" t="s">
+        <v>13</v>
+      </c>
+      <c r="K152" t="s">
+        <v>13</v>
+      </c>
+      <c r="R152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7636,19 +9029,28 @@
         <v>27</v>
       </c>
       <c r="H153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>10</v>
-      </c>
-      <c r="N153" t="s">
+        <v>9</v>
+      </c>
+      <c r="J153" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153" t="s">
+        <v>11</v>
+      </c>
+      <c r="P153" t="s">
         <v>15</v>
       </c>
-      <c r="O153" t="s">
+      <c r="Q153" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7671,16 +9073,25 @@
         <v>8</v>
       </c>
       <c r="I154" t="s">
-        <v>10</v>
-      </c>
-      <c r="N154" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" t="s">
+        <v>13</v>
+      </c>
+      <c r="P154" t="s">
         <v>14</v>
       </c>
-      <c r="O154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q154" t="s">
+        <v>18</v>
+      </c>
+      <c r="R154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7702,8 +9113,17 @@
       <c r="H155" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I155" t="s">
+        <v>8</v>
+      </c>
+      <c r="K155" t="s">
+        <v>10</v>
+      </c>
+      <c r="R155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7729,16 +9149,22 @@
         <v>8</v>
       </c>
       <c r="I156" t="s">
-        <v>10</v>
-      </c>
-      <c r="N156" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" t="s">
+        <v>10</v>
+      </c>
+      <c r="K156" t="s">
+        <v>13</v>
+      </c>
+      <c r="P156" t="s">
         <v>14</v>
       </c>
-      <c r="O156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7758,19 +9184,28 @@
         <v>35</v>
       </c>
       <c r="H157" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I157" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" t="s">
         <v>36</v>
       </c>
-      <c r="N157" t="s">
+      <c r="K157" t="s">
+        <v>10</v>
+      </c>
+      <c r="P157" t="s">
         <v>14</v>
       </c>
-      <c r="O157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q157" t="s">
+        <v>18</v>
+      </c>
+      <c r="R157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -7790,19 +9225,28 @@
         <v>35</v>
       </c>
       <c r="H158" t="s">
+        <v>9</v>
+      </c>
+      <c r="I158" t="s">
         <v>22</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>36</v>
       </c>
-      <c r="N158" t="s">
+      <c r="K158" t="s">
+        <v>10</v>
+      </c>
+      <c r="P158" t="s">
         <v>15</v>
       </c>
-      <c r="O158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q158" t="s">
+        <v>18</v>
+      </c>
+      <c r="R158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7825,10 +9269,16 @@
         <v>9</v>
       </c>
       <c r="I159" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J159" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7848,13 +9298,22 @@
         <v>21</v>
       </c>
       <c r="H160" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J160" t="s">
+        <v>10</v>
+      </c>
+      <c r="K160" t="s">
+        <v>10</v>
+      </c>
+      <c r="R160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -7877,19 +9336,25 @@
         <v>21</v>
       </c>
       <c r="H161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I161" t="s">
-        <v>13</v>
-      </c>
-      <c r="N161" t="s">
+        <v>9</v>
+      </c>
+      <c r="J161" t="s">
+        <v>13</v>
+      </c>
+      <c r="K161" t="s">
+        <v>13</v>
+      </c>
+      <c r="P161" t="s">
         <v>14</v>
       </c>
-      <c r="O161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -7912,16 +9377,25 @@
         <v>8</v>
       </c>
       <c r="I162" t="s">
-        <v>10</v>
-      </c>
-      <c r="N162" t="s">
-        <v>13</v>
-      </c>
-      <c r="O162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J162" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" t="s">
+        <v>11</v>
+      </c>
+      <c r="P162" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>18</v>
+      </c>
+      <c r="R162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7941,19 +9415,25 @@
         <v>21</v>
       </c>
       <c r="H163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I163" t="s">
-        <v>10</v>
-      </c>
-      <c r="N163" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" t="s">
+        <v>10</v>
+      </c>
+      <c r="K163" t="s">
+        <v>11</v>
+      </c>
+      <c r="P163" t="s">
         <v>14</v>
       </c>
-      <c r="O163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7973,13 +9453,22 @@
         <v>7</v>
       </c>
       <c r="H164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I164" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K164" t="s">
+        <v>11</v>
+      </c>
+      <c r="R164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7999,19 +9488,28 @@
         <v>21</v>
       </c>
       <c r="H165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I165" t="s">
-        <v>13</v>
-      </c>
-      <c r="N165" t="s">
-        <v>13</v>
-      </c>
-      <c r="O165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J165" t="s">
+        <v>13</v>
+      </c>
+      <c r="K165" t="s">
+        <v>10</v>
+      </c>
+      <c r="P165" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>13</v>
+      </c>
+      <c r="R165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -8031,13 +9529,22 @@
         <v>27</v>
       </c>
       <c r="H166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I166" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J166" t="s">
+        <v>10</v>
+      </c>
+      <c r="K166" t="s">
+        <v>10</v>
+      </c>
+      <c r="R166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -8063,10 +9570,19 @@
         <v>8</v>
       </c>
       <c r="I167" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K167" t="s">
+        <v>10</v>
+      </c>
+      <c r="R167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -8089,16 +9605,25 @@
         <v>8</v>
       </c>
       <c r="I168" t="s">
-        <v>13</v>
-      </c>
-      <c r="N168" t="s">
+        <v>8</v>
+      </c>
+      <c r="J168" t="s">
+        <v>13</v>
+      </c>
+      <c r="K168" t="s">
+        <v>10</v>
+      </c>
+      <c r="P168" t="s">
         <v>14</v>
       </c>
-      <c r="O168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q168" t="s">
+        <v>13</v>
+      </c>
+      <c r="R168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -8121,16 +9646,25 @@
         <v>8</v>
       </c>
       <c r="I169" t="s">
-        <v>10</v>
-      </c>
-      <c r="N169" t="s">
-        <v>13</v>
-      </c>
-      <c r="O169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J169" t="s">
+        <v>10</v>
+      </c>
+      <c r="K169" t="s">
+        <v>12</v>
+      </c>
+      <c r="P169" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>13</v>
+      </c>
+      <c r="R169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -8150,19 +9684,28 @@
         <v>7</v>
       </c>
       <c r="H170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I170" t="s">
-        <v>10</v>
-      </c>
-      <c r="N170" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" t="s">
+        <v>12</v>
+      </c>
+      <c r="P170" t="s">
         <v>14</v>
       </c>
-      <c r="O170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q170" t="s">
+        <v>18</v>
+      </c>
+      <c r="R170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -8182,19 +9725,25 @@
         <v>21</v>
       </c>
       <c r="H171" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I171" t="s">
-        <v>13</v>
-      </c>
-      <c r="N171" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" t="s">
+        <v>13</v>
+      </c>
+      <c r="K171" t="s">
+        <v>13</v>
+      </c>
+      <c r="P171" t="s">
         <v>14</v>
       </c>
-      <c r="O171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -8220,16 +9769,25 @@
         <v>8</v>
       </c>
       <c r="I172" t="s">
-        <v>10</v>
-      </c>
-      <c r="N172" t="s">
-        <v>13</v>
-      </c>
-      <c r="O172" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" t="s">
+        <v>10</v>
+      </c>
+      <c r="K172" t="s">
+        <v>13</v>
+      </c>
+      <c r="P172" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q172" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -8249,19 +9807,28 @@
         <v>21</v>
       </c>
       <c r="H173" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I173" t="s">
+        <v>9</v>
+      </c>
+      <c r="J173" t="s">
         <v>36</v>
       </c>
-      <c r="N173" t="s">
-        <v>13</v>
-      </c>
-      <c r="O173" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K173" t="s">
+        <v>36</v>
+      </c>
+      <c r="P173" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>18</v>
+      </c>
+      <c r="R173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -8281,16 +9848,250 @@
         <v>35</v>
       </c>
       <c r="H174" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I174" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" t="s">
         <v>36</v>
       </c>
+      <c r="K174" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:Q174">
     <sortCondition ref="C1:C174"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4F928A-80B7-7049-97FC-817AF15AF4BA}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4512BE4D-C1F9-504F-9DFD-DBE014C2D7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D553BBE6-B7E7-3E4C-9988-76225D8AD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results-survey" sheetId="1" r:id="rId1"/>
-    <sheet name="question-short" sheetId="2" r:id="rId2"/>
+    <sheet name="question-short" sheetId="2" r:id="rId1"/>
+    <sheet name="results-survey-lime" sheetId="1" r:id="rId2"/>
+    <sheet name="results-survey-condensed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2817" uniqueCount="117">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2992" uniqueCount="120">
   <si>
     <t>Männlich</t>
   </si>
@@ -256,6 +257,9 @@
     <t>f3Imagearbeit</t>
   </si>
   <si>
+    <t>f4Imagearbeit</t>
+  </si>
+  <si>
     <t>f5Verbandsarbeit</t>
   </si>
   <si>
@@ -337,27 +341,9 @@
     <t>Haben Sie weitere Erwerbsquellen neben dem Erlebnishof außer Landwirtschaft?</t>
   </si>
   <si>
-    <t>Wie oft lesen Sie den Newsletter auf der Verbandshomepage?</t>
-  </si>
-  <si>
-    <t>Halten Sie die Verbandsarbeit für sinnvoll?</t>
-  </si>
-  <si>
-    <t>Sehen Sie die Haltung von Großkatzen als eine Bereicherung?</t>
-  </si>
-  <si>
     <t>Füttern Sie Joghurt?</t>
   </si>
   <si>
-    <t>Füttern Sie pflanzlich oder vegan?</t>
-  </si>
-  <si>
-    <t>Wie zufrieden sind Sie mit der Lobbyarbeit des Verbandes in Berlin?</t>
-  </si>
-  <si>
-    <t>Wir aktiv sind Sie in der Vermarktung von anderen Großtieren, wie Bären oder Elefanten, in den sozialen Netzwerken?</t>
-  </si>
-  <si>
     <t>Welche Stellung haben Sie auf dem Erlebnishof inne?</t>
   </si>
   <si>
@@ -367,9 +353,6 @@
     <t>Wir aktiv sind Sie in der positiven Vermarktung des Verbandes in sozialen Netzwerken?</t>
   </si>
   <si>
-    <t>Sehen Sie die Notwendigkeit von genetisch veränderten Großkatzen für die Steigerung der Attraktivität?</t>
-  </si>
-  <si>
     <t>Wie präsent nehmen Sie die Verbandsarbeit in der Bundespolitik war?</t>
   </si>
   <si>
@@ -377,6 +360,33 @@
   </si>
   <si>
     <t>Füttern Sie wöchentlich Batzen?</t>
+  </si>
+  <si>
+    <t>Wie oft lesen Sie quartalsweise den Newsletter auf der Verbandshomepage?</t>
+  </si>
+  <si>
+    <t>Halten Sie die Verbandsarbeit für die Verbreitung von Großkatzen im ländlichen Raum für sinnvoll?</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>Haben Sie die Verbandsrechtsbeihilfe in dem letzten Quartal genutzt, da Sie während Ihrer Verbandstätigkeit einen Wolf erschlugen?</t>
+  </si>
+  <si>
+    <t>Sehen Sie die Haltung von Großkatzen als eine kulturelle Bereicherung?</t>
+  </si>
+  <si>
+    <t>Sehen Sie die Notwendigkeit von genetisch veränderten Großkatzen zur Steigerung der Attraktivität des Erlebnishofes?</t>
+  </si>
+  <si>
+    <t>Füttern Sie pflanzlich oder gar vegan?</t>
+  </si>
+  <si>
+    <t>Wie zufrieden sind Sie mit der Lobbyarbeit des Verbandes in den Landeshauptstädten?</t>
+  </si>
+  <si>
+    <t>Wir aktiv sind Sie in der Vermarktung von Nachwuchs an Dritte in den sozialen Netzwerken?</t>
   </si>
 </sst>
 </file>
@@ -1216,11 +1226,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4F928A-80B7-7049-97FC-817AF15AF4BA}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="C169" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1481,7 @@
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1264,7 +1513,7 @@
         <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
         <v>69</v>
@@ -1287,8 +1536,11 @@
       <c r="R1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1595,11 @@
       <c r="R2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1651,11 @@
       <c r="R3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1449,8 +1707,11 @@
       <c r="R4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1499,8 +1760,11 @@
       <c r="Q5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1555,8 +1819,11 @@
       <c r="R6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1611,8 +1878,11 @@
       <c r="R7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1667,8 +1937,11 @@
       <c r="R8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1714,8 +1987,11 @@
       <c r="R9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +2043,11 @@
       <c r="R10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1817,8 +2096,11 @@
       <c r="Q11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1870,8 +2152,11 @@
       <c r="R12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1923,8 +2208,11 @@
       <c r="R13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1979,8 +2267,11 @@
       <c r="R14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2032,8 +2323,11 @@
       <c r="R15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2085,8 +2379,11 @@
       <c r="R16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2138,8 +2435,11 @@
       <c r="R17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2491,11 @@
       <c r="R18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2244,8 +2547,11 @@
       <c r="R19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2297,8 +2603,11 @@
       <c r="R20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2341,8 +2650,11 @@
       <c r="O21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2388,8 +2700,11 @@
       <c r="R22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2444,8 +2759,11 @@
       <c r="R23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2497,8 +2815,11 @@
       <c r="R24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2544,8 +2865,11 @@
       <c r="R25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2591,8 +2915,11 @@
       <c r="R26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2644,8 +2971,11 @@
       <c r="Q27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2697,8 +3027,11 @@
       <c r="R28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2712,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -2747,8 +3080,11 @@
       <c r="Q29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -2794,8 +3130,11 @@
       <c r="R30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2844,8 +3183,11 @@
       <c r="R31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2891,8 +3233,11 @@
       <c r="Q32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2941,8 +3286,11 @@
       <c r="Q33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2991,8 +3339,11 @@
       <c r="Q34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3044,8 +3395,11 @@
       <c r="R35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3097,8 +3451,11 @@
       <c r="R36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3150,8 +3507,11 @@
       <c r="R37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3200,8 +3560,11 @@
       <c r="Q38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3250,8 +3613,11 @@
       <c r="Q39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -3297,8 +3663,11 @@
       <c r="R40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3350,8 +3719,11 @@
       <c r="R41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3403,8 +3775,11 @@
       <c r="R42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -3456,8 +3831,11 @@
       <c r="R43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3506,8 +3884,11 @@
       <c r="R44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
         <v>21</v>
@@ -3559,8 +3940,11 @@
       <c r="R45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3612,8 +3996,11 @@
       <c r="R46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3659,8 +4046,11 @@
       <c r="R47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3712,8 +4102,11 @@
       <c r="Q48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3765,8 +4158,11 @@
       <c r="R49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3818,8 +4214,11 @@
       <c r="R50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3871,8 +4270,11 @@
       <c r="R51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3924,8 +4326,11 @@
       <c r="R52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3977,8 +4382,11 @@
       <c r="R53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4027,8 +4435,11 @@
       <c r="Q54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4080,8 +4491,11 @@
       <c r="R55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4136,8 +4550,11 @@
       <c r="R56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4186,8 +4603,11 @@
       <c r="Q57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4239,8 +4659,11 @@
       <c r="R58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4292,8 +4715,11 @@
       <c r="R59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4339,8 +4765,11 @@
       <c r="R60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4392,8 +4821,11 @@
       <c r="R61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4445,8 +4877,11 @@
       <c r="R62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4498,8 +4933,11 @@
       <c r="R63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4551,8 +4989,11 @@
       <c r="R64" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +5049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4660,8 +5101,11 @@
       <c r="R66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -4686,8 +5130,11 @@
       <c r="R67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -4739,8 +5186,11 @@
       <c r="R68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -4792,8 +5242,11 @@
       <c r="R69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -4845,8 +5298,11 @@
       <c r="Q70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4895,8 +5351,11 @@
       <c r="Q71" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4948,8 +5407,11 @@
       <c r="R72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4998,8 +5460,11 @@
       <c r="Q73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5013,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
         <v>7</v>
@@ -5051,8 +5516,11 @@
       <c r="R74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5104,8 +5572,11 @@
       <c r="R75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5154,8 +5625,11 @@
       <c r="R76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5201,8 +5675,11 @@
       <c r="R77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5254,8 +5731,11 @@
       <c r="R78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5307,8 +5787,11 @@
       <c r="R79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5354,8 +5837,11 @@
       <c r="Q80" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5407,8 +5893,11 @@
       <c r="R81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5454,8 +5943,11 @@
       <c r="R82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5501,8 +5993,11 @@
       <c r="R83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5554,8 +6049,11 @@
       <c r="R84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5610,8 +6108,11 @@
       <c r="R85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5663,8 +6164,11 @@
       <c r="R86" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5716,8 +6220,11 @@
       <c r="R87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5769,8 +6276,11 @@
       <c r="R88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5816,8 +6326,11 @@
       <c r="R89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5866,8 +6379,11 @@
       <c r="Q90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5919,8 +6435,11 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5969,8 +6488,11 @@
       <c r="Q92" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -6022,8 +6544,11 @@
       <c r="R93" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -6075,8 +6600,11 @@
       <c r="R94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -6131,8 +6659,11 @@
       <c r="R95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -6187,8 +6718,11 @@
       <c r="R96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6240,8 +6774,11 @@
       <c r="R97" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6290,8 +6827,11 @@
       <c r="Q98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6340,8 +6880,11 @@
       <c r="Q99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6393,8 +6936,11 @@
       <c r="R100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6446,8 +6992,11 @@
       <c r="R101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6499,8 +7048,11 @@
       <c r="R102" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6552,8 +7104,11 @@
       <c r="R103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6605,8 +7160,11 @@
       <c r="R104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6658,8 +7216,11 @@
       <c r="Q105" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6711,8 +7272,11 @@
       <c r="R106" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6755,8 +7319,11 @@
       <c r="O107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6805,8 +7372,11 @@
       <c r="Q108" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6852,8 +7422,11 @@
       <c r="R109" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6902,8 +7475,11 @@
       <c r="Q110" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6955,8 +7531,11 @@
       <c r="R111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -7005,8 +7584,11 @@
       <c r="R112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -7058,8 +7640,11 @@
       <c r="R113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -7114,8 +7699,11 @@
       <c r="R114" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -7167,8 +7755,11 @@
       <c r="R115" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -7214,8 +7805,11 @@
       <c r="R116" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -7229,7 +7823,7 @@
         <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
@@ -7267,8 +7861,11 @@
       <c r="R117" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -7323,8 +7920,11 @@
       <c r="R118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -7370,8 +7970,11 @@
       <c r="R119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -7417,8 +8020,11 @@
       <c r="R120" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -7470,8 +8076,11 @@
       <c r="R121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -7523,8 +8132,11 @@
       <c r="R122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -7576,8 +8188,11 @@
       <c r="R123" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -7623,8 +8238,11 @@
       <c r="R124" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -7676,8 +8294,11 @@
       <c r="R125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -7729,8 +8350,11 @@
       <c r="R126" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -7782,8 +8406,11 @@
       <c r="R127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -7835,8 +8462,11 @@
       <c r="Q128" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -7888,8 +8518,11 @@
       <c r="R129" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -7938,8 +8571,11 @@
       <c r="Q130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -7988,8 +8624,11 @@
       <c r="R131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -8044,8 +8683,11 @@
       <c r="R132" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -8091,8 +8733,11 @@
       <c r="O133" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -8147,8 +8792,11 @@
       <c r="R134" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -8194,8 +8842,11 @@
       <c r="R135" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -8247,8 +8898,11 @@
       <c r="R136" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -8297,8 +8951,11 @@
       <c r="Q137" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -8350,8 +9007,11 @@
       <c r="R138" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -8403,8 +9063,11 @@
       <c r="R139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -8459,8 +9122,11 @@
       <c r="R140" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -8509,8 +9175,11 @@
       <c r="Q141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -8559,8 +9228,11 @@
       <c r="Q142" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -8612,8 +9284,11 @@
       <c r="R143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -8659,8 +9334,11 @@
       <c r="R144" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -8712,8 +9390,11 @@
       <c r="R145" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -8762,8 +9443,11 @@
       <c r="Q146" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -8809,8 +9493,11 @@
       <c r="R147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -8844,8 +9531,11 @@
       <c r="R148" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -8888,8 +9578,11 @@
       <c r="R149" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -8929,8 +9622,11 @@
       <c r="R150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -8970,8 +9666,11 @@
       <c r="R151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -9005,8 +9704,11 @@
       <c r="R152" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -9049,8 +9751,11 @@
       <c r="R153" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -9090,8 +9795,11 @@
       <c r="R154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -9122,8 +9830,11 @@
       <c r="R155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -9163,8 +9874,11 @@
       <c r="Q156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -9204,8 +9918,11 @@
       <c r="R157" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -9245,8 +9962,11 @@
       <c r="R158" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -9277,8 +9997,11 @@
       <c r="K159" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -9312,8 +10035,11 @@
       <c r="R160" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -9353,8 +10079,11 @@
       <c r="Q161" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -9394,8 +10123,11 @@
       <c r="R162" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -9432,8 +10164,11 @@
       <c r="Q163" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -9467,8 +10202,11 @@
       <c r="R164" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -9508,8 +10246,11 @@
       <c r="R165" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -9543,8 +10284,11 @@
       <c r="R166" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -9581,8 +10325,11 @@
       <c r="R167" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -9622,8 +10369,11 @@
       <c r="R168" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -9663,8 +10413,11 @@
       <c r="R169" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -9704,8 +10457,11 @@
       <c r="R170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -9742,8 +10498,11 @@
       <c r="Q171" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -9786,8 +10545,11 @@
       <c r="R172" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -9827,8 +10589,11 @@
       <c r="R173" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -9868,230 +10633,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4F928A-80B7-7049-97FC-817AF15AF4BA}">
-  <dimension ref="A1:C19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1A4A32-3855-1145-9721-F75C8C959E17}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D553BBE6-B7E7-3E4C-9988-76225D8AD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A397C9EE-4B98-E444-9D59-E65943DC8504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="question-short" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2992" uniqueCount="120">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2991" uniqueCount="120">
   <si>
     <t>Männlich</t>
   </si>
@@ -266,9 +266,6 @@
     <t>ques_id</t>
   </si>
   <si>
-    <t>lime_short</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -386,7 +383,10 @@
     <t>Wie zufrieden sind Sie mit der Lobbyarbeit des Verbandes in den Landeshauptstädten?</t>
   </si>
   <si>
-    <t>Wir aktiv sind Sie in der Vermarktung von Nachwuchs an Dritte in den sozialen Netzwerken?</t>
+    <t>lime_id</t>
+  </si>
+  <si>
+    <t>Wir aktiv sind Sie in der Vermarktung von Tigernachwuchs an Dritte in den sozialen Netzwerken?</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1244,202 +1244,202 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView topLeftCell="C169" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -1622,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -1790,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -1849,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1908,7 +1908,7 @@
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -2014,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -2070,7 +2070,7 @@
         <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -2123,7 +2123,7 @@
         <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -2179,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
         <v>36</v>
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -2294,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
@@ -2350,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -2406,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -2462,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
         <v>10</v>
@@ -2518,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
@@ -2574,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
@@ -2630,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -2677,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -2730,7 +2730,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
         <v>36</v>
@@ -2786,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
         <v>10</v>
@@ -2842,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
@@ -2892,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
         <v>10</v>
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
         <v>10</v>
@@ -2998,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
         <v>10</v>
@@ -3045,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -3054,7 +3054,7 @@
         <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
         <v>10</v>
@@ -3098,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -3160,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
         <v>10</v>
@@ -3209,9 +3209,6 @@
       <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
       <c r="J32" t="s">
         <v>36</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -3313,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -3366,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
@@ -3422,7 +3419,7 @@
         <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
         <v>36</v>
@@ -3478,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -3534,7 +3531,7 @@
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J38" t="s">
         <v>10</v>
@@ -3587,7 +3584,7 @@
         <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J39" t="s">
         <v>36</v>
@@ -3640,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
         <v>36</v>
@@ -3690,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -3746,7 +3743,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J42" t="s">
         <v>10</v>
@@ -3802,7 +3799,7 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
         <v>10</v>
@@ -3861,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
         <v>36</v>
@@ -3902,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
         <v>21</v>
@@ -3911,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -3967,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J46" t="s">
         <v>36</v>
@@ -4023,7 +4020,7 @@
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J47" t="s">
         <v>10</v>
@@ -4076,7 +4073,7 @@
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s">
         <v>13</v>
@@ -4129,7 +4126,7 @@
         <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
         <v>36</v>
@@ -4185,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J50" t="s">
         <v>10</v>
@@ -4241,7 +4238,7 @@
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J51" t="s">
         <v>36</v>
@@ -4297,7 +4294,7 @@
         <v>9</v>
       </c>
       <c r="I52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J52" t="s">
         <v>13</v>
@@ -4353,7 +4350,7 @@
         <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J53" t="s">
         <v>10</v>
@@ -4409,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J54" t="s">
         <v>13</v>
@@ -4462,7 +4459,7 @@
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J55" t="s">
         <v>13</v>
@@ -4521,7 +4518,7 @@
         <v>8</v>
       </c>
       <c r="I56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J56" t="s">
         <v>11</v>
@@ -4577,7 +4574,7 @@
         <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J57" t="s">
         <v>13</v>
@@ -4630,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
         <v>10</v>
@@ -4686,7 +4683,7 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J59" t="s">
         <v>10</v>
@@ -4742,7 +4739,7 @@
         <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
         <v>10</v>
@@ -4792,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="I61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J61" t="s">
         <v>10</v>
@@ -4848,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J62" t="s">
         <v>13</v>
@@ -4904,7 +4901,7 @@
         <v>9</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J63" t="s">
         <v>36</v>
@@ -4960,7 +4957,7 @@
         <v>8</v>
       </c>
       <c r="I64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J64" t="s">
         <v>10</v>
@@ -5019,7 +5016,7 @@
         <v>8</v>
       </c>
       <c r="I65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J65" t="s">
         <v>10</v>
@@ -5072,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
         <v>36</v>
@@ -5124,6 +5121,9 @@
       <c r="H67" t="s">
         <v>9</v>
       </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
       <c r="K67" t="s">
         <v>11</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J68" t="s">
         <v>10</v>
@@ -5213,7 +5213,7 @@
         <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J69" t="s">
         <v>36</v>
@@ -5272,7 +5272,7 @@
         <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J70" t="s">
         <v>10</v>
@@ -5325,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="I71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J71" t="s">
         <v>13</v>
@@ -5378,7 +5378,7 @@
         <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J72" t="s">
         <v>10</v>
@@ -5434,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J73" t="s">
         <v>10</v>
@@ -5478,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G74" t="s">
         <v>7</v>
@@ -5487,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J74" t="s">
         <v>10</v>
@@ -5543,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J75" t="s">
         <v>10</v>
@@ -5602,7 +5602,7 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
@@ -5652,7 +5652,7 @@
         <v>9</v>
       </c>
       <c r="I77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J77" t="s">
         <v>10</v>
@@ -5702,7 +5702,7 @@
         <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J78" t="s">
         <v>12</v>
@@ -5758,7 +5758,7 @@
         <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J79" t="s">
         <v>10</v>
@@ -5813,9 +5813,6 @@
       <c r="G80" t="s">
         <v>7</v>
       </c>
-      <c r="I80" t="s">
-        <v>8</v>
-      </c>
       <c r="J80" t="s">
         <v>10</v>
       </c>
@@ -5864,7 +5861,7 @@
         <v>9</v>
       </c>
       <c r="I81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J81" t="s">
         <v>10</v>
@@ -5920,7 +5917,7 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J82" t="s">
         <v>11</v>
@@ -5970,7 +5967,7 @@
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
         <v>10</v>
@@ -6020,7 +6017,7 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
         <v>10</v>
@@ -6079,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
         <v>10</v>
@@ -6135,7 +6132,7 @@
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J86" t="s">
         <v>13</v>
@@ -6191,7 +6188,7 @@
         <v>9</v>
       </c>
       <c r="I87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J87" t="s">
         <v>11</v>
@@ -6247,7 +6244,7 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J88" t="s">
         <v>10</v>
@@ -6303,7 +6300,7 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J89" t="s">
         <v>11</v>
@@ -6353,7 +6350,7 @@
         <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J90" t="s">
         <v>10</v>
@@ -6406,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J91" t="s">
         <v>11</v>
@@ -6462,7 +6459,7 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J92" t="s">
         <v>11</v>
@@ -6515,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J93" t="s">
         <v>10</v>
@@ -6571,7 +6568,7 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J94" t="s">
         <v>11</v>
@@ -6630,7 +6627,7 @@
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J95" t="s">
         <v>10</v>
@@ -6689,7 +6686,7 @@
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
         <v>10</v>
@@ -6745,7 +6742,7 @@
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J97" t="s">
         <v>13</v>
@@ -6801,7 +6798,7 @@
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J98" t="s">
         <v>36</v>
@@ -6854,7 +6851,7 @@
         <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J99" t="s">
         <v>10</v>
@@ -6907,7 +6904,7 @@
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J100" t="s">
         <v>13</v>
@@ -6963,7 +6960,7 @@
         <v>9</v>
       </c>
       <c r="I101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J101" t="s">
         <v>11</v>
@@ -7019,7 +7016,7 @@
         <v>9</v>
       </c>
       <c r="I102" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
         <v>13</v>
@@ -7075,7 +7072,7 @@
         <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J103" t="s">
         <v>13</v>
@@ -7131,7 +7128,7 @@
         <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J104" t="s">
         <v>13</v>
@@ -7190,7 +7187,7 @@
         <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J105" t="s">
         <v>13</v>
@@ -7243,7 +7240,7 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J106" t="s">
         <v>13</v>
@@ -7299,7 +7296,7 @@
         <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J107" t="s">
         <v>11</v>
@@ -7346,7 +7343,7 @@
         <v>9</v>
       </c>
       <c r="I108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J108" t="s">
         <v>10</v>
@@ -7399,7 +7396,7 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J109" t="s">
         <v>10</v>
@@ -7449,7 +7446,7 @@
         <v>34</v>
       </c>
       <c r="I110" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
         <v>13</v>
@@ -7502,7 +7499,7 @@
         <v>9</v>
       </c>
       <c r="I111" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J111" t="s">
         <v>11</v>
@@ -7561,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J112" t="s">
         <v>10</v>
@@ -7611,7 +7608,7 @@
         <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J113" t="s">
         <v>13</v>
@@ -7670,7 +7667,7 @@
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
         <v>10</v>
@@ -7726,7 +7723,7 @@
         <v>8</v>
       </c>
       <c r="I115" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
         <v>36</v>
@@ -7782,7 +7779,7 @@
         <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J116" t="s">
         <v>10</v>
@@ -7823,7 +7820,7 @@
         <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
@@ -7832,7 +7829,7 @@
         <v>22</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
         <v>10</v>
@@ -7891,7 +7888,7 @@
         <v>22</v>
       </c>
       <c r="I118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J118" t="s">
         <v>10</v>
@@ -7947,7 +7944,7 @@
         <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J119" t="s">
         <v>10</v>
@@ -7997,7 +7994,7 @@
         <v>8</v>
       </c>
       <c r="I120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J120" t="s">
         <v>13</v>
@@ -8047,7 +8044,7 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J121" t="s">
         <v>10</v>
@@ -8103,7 +8100,7 @@
         <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J122" t="s">
         <v>10</v>
@@ -8159,7 +8156,7 @@
         <v>9</v>
       </c>
       <c r="I123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J123" t="s">
         <v>10</v>
@@ -8215,7 +8212,7 @@
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J124" t="s">
         <v>13</v>
@@ -8265,7 +8262,7 @@
         <v>9</v>
       </c>
       <c r="I125" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
         <v>13</v>
@@ -8321,7 +8318,7 @@
         <v>22</v>
       </c>
       <c r="I126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J126" t="s">
         <v>12</v>
@@ -8377,7 +8374,7 @@
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J127" t="s">
         <v>10</v>
@@ -8436,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="I128" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J128" t="s">
         <v>36</v>
@@ -8489,7 +8486,7 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J129" t="s">
         <v>11</v>
@@ -8545,7 +8542,7 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J130" t="s">
         <v>10</v>
@@ -8601,7 +8598,7 @@
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J131" t="s">
         <v>10</v>
@@ -8654,7 +8651,7 @@
         <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J132" t="s">
         <v>10</v>
@@ -8713,7 +8710,7 @@
         <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J133" t="s">
         <v>10</v>
@@ -8763,7 +8760,7 @@
         <v>9</v>
       </c>
       <c r="I134" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J134" t="s">
         <v>10</v>
@@ -8819,7 +8816,7 @@
         <v>34</v>
       </c>
       <c r="I135" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
         <v>13</v>
@@ -8869,7 +8866,7 @@
         <v>22</v>
       </c>
       <c r="I136" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J136" t="s">
         <v>10</v>
@@ -8925,7 +8922,7 @@
         <v>22</v>
       </c>
       <c r="I137" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J137" t="s">
         <v>10</v>
@@ -8978,7 +8975,7 @@
         <v>8</v>
       </c>
       <c r="I138" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J138" t="s">
         <v>10</v>
@@ -9034,7 +9031,7 @@
         <v>22</v>
       </c>
       <c r="I139" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J139" t="s">
         <v>13</v>
@@ -9093,7 +9090,7 @@
         <v>9</v>
       </c>
       <c r="I140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J140" t="s">
         <v>10</v>
@@ -9149,7 +9146,7 @@
         <v>9</v>
       </c>
       <c r="I141" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J141" t="s">
         <v>36</v>
@@ -9202,7 +9199,7 @@
         <v>34</v>
       </c>
       <c r="I142" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
         <v>11</v>
@@ -9255,7 +9252,7 @@
         <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J143" t="s">
         <v>12</v>
@@ -9311,7 +9308,7 @@
         <v>34</v>
       </c>
       <c r="I144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J144" t="s">
         <v>10</v>
@@ -9361,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="I145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J145" t="s">
         <v>11</v>
@@ -9417,7 +9414,7 @@
         <v>9</v>
       </c>
       <c r="I146" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
         <v>36</v>
@@ -9470,7 +9467,7 @@
         <v>9</v>
       </c>
       <c r="I147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J147" t="s">
         <v>10</v>
@@ -9520,7 +9517,7 @@
         <v>9</v>
       </c>
       <c r="I148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J148" t="s">
         <v>11</v>
@@ -9561,7 +9558,7 @@
         <v>9</v>
       </c>
       <c r="I149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J149" t="s">
         <v>10</v>
@@ -9605,7 +9602,7 @@
         <v>8</v>
       </c>
       <c r="I150" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J150" t="s">
         <v>10</v>
@@ -9649,7 +9646,7 @@
         <v>8</v>
       </c>
       <c r="I151" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J151" t="s">
         <v>36</v>
@@ -9693,7 +9690,7 @@
         <v>9</v>
       </c>
       <c r="I152" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J152" t="s">
         <v>13</v>
@@ -9734,7 +9731,7 @@
         <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J153" t="s">
         <v>10</v>
@@ -9778,7 +9775,7 @@
         <v>8</v>
       </c>
       <c r="I154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J154" t="s">
         <v>10</v>
@@ -9822,7 +9819,7 @@
         <v>8</v>
       </c>
       <c r="I155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K155" t="s">
         <v>10</v>
@@ -9860,7 +9857,7 @@
         <v>8</v>
       </c>
       <c r="I156" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J156" t="s">
         <v>10</v>
@@ -9901,7 +9898,7 @@
         <v>22</v>
       </c>
       <c r="I157" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
         <v>36</v>
@@ -9945,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="I158" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J158" t="s">
         <v>36</v>
@@ -9989,7 +9986,7 @@
         <v>9</v>
       </c>
       <c r="I159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J159" t="s">
         <v>10</v>
@@ -10024,7 +10021,7 @@
         <v>22</v>
       </c>
       <c r="I160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J160" t="s">
         <v>10</v>
@@ -10065,7 +10062,7 @@
         <v>8</v>
       </c>
       <c r="I161" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
         <v>13</v>
@@ -10106,7 +10103,7 @@
         <v>8</v>
       </c>
       <c r="I162" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J162" t="s">
         <v>10</v>
@@ -10150,7 +10147,7 @@
         <v>9</v>
       </c>
       <c r="I163" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J163" t="s">
         <v>10</v>
@@ -10191,7 +10188,7 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J164" t="s">
         <v>11</v>
@@ -10229,7 +10226,7 @@
         <v>9</v>
       </c>
       <c r="I165" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J165" t="s">
         <v>13</v>
@@ -10273,7 +10270,7 @@
         <v>8</v>
       </c>
       <c r="I166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J166" t="s">
         <v>10</v>
@@ -10314,7 +10311,7 @@
         <v>8</v>
       </c>
       <c r="I167" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J167" t="s">
         <v>11</v>
@@ -10352,7 +10349,7 @@
         <v>8</v>
       </c>
       <c r="I168" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J168" t="s">
         <v>13</v>
@@ -10396,7 +10393,7 @@
         <v>8</v>
       </c>
       <c r="I169" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J169" t="s">
         <v>10</v>
@@ -10440,7 +10437,7 @@
         <v>9</v>
       </c>
       <c r="I170" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J170" t="s">
         <v>10</v>
@@ -10484,7 +10481,7 @@
         <v>22</v>
       </c>
       <c r="I171" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J171" t="s">
         <v>13</v>
@@ -10528,7 +10525,7 @@
         <v>8</v>
       </c>
       <c r="I172" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J172" t="s">
         <v>10</v>
@@ -10572,7 +10569,7 @@
         <v>22</v>
       </c>
       <c r="I173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J173" t="s">
         <v>36</v>
@@ -10616,7 +10613,7 @@
         <v>22</v>
       </c>
       <c r="I174" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J174" t="s">
         <v>36</v>
@@ -10637,7 +10634,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1A4A32-3855-1145-9721-F75C8C959E17}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>

--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14BF416F-7B20-2D40-91EE-5032569DB9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{65C2C144-C181-E24F-AEAA-8A12798510A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="question-short" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2953" uniqueCount="107">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2963" uniqueCount="107">
   <si>
     <t>Männlich</t>
   </si>
@@ -347,7 +347,7 @@
     <t>Wie aktiv sind Sie bei der notwendigen Entnahme von Schadwölfen in Ihrem Einflussgebiet?</t>
   </si>
   <si>
-    <t>Die Verbandsarbeit muss in den nächsten Jahren digital in den sozialen Netzwerken ausgeweitet werden!</t>
+    <t>Soll die Verbandsarbeit in den nächsten Jahren digital in den sozialen Netzwerken ausgeweitet werden?</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4F928A-80B7-7049-97FC-817AF15AF4BA}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2602,6 +2602,9 @@
       <c r="O21" t="s">
         <v>4</v>
       </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -3170,6 +3173,9 @@
       <c r="O32" t="s">
         <v>4</v>
       </c>
+      <c r="P32" t="s">
+        <v>13</v>
+      </c>
       <c r="Q32" t="s">
         <v>13</v>
       </c>
@@ -3220,6 +3226,9 @@
       <c r="Q33" t="s">
         <v>10</v>
       </c>
+      <c r="R33" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -3266,6 +3275,9 @@
       </c>
       <c r="Q34" t="s">
         <v>16</v>
+      </c>
+      <c r="S34" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -5031,18 +5043,6 @@
       <c r="F67" t="s">
         <v>36</v>
       </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" t="s">
-        <v>8</v>
-      </c>
       <c r="P67" t="s">
         <v>16</v>
       </c>
@@ -5214,6 +5214,9 @@
       <c r="Q70" t="s">
         <v>10</v>
       </c>
+      <c r="R70" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -5716,9 +5719,6 @@
       </c>
       <c r="F80" t="s">
         <v>6</v>
-      </c>
-      <c r="J80" t="s">
-        <v>7</v>
       </c>
       <c r="L80" t="s">
         <v>2</v>
@@ -6716,6 +6716,9 @@
       <c r="Q98" t="s">
         <v>11</v>
       </c>
+      <c r="R98" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -6760,8 +6763,14 @@
       <c r="O99" t="s">
         <v>4</v>
       </c>
+      <c r="P99" t="s">
+        <v>13</v>
+      </c>
       <c r="Q99" t="s">
         <v>13</v>
+      </c>
+      <c r="S99" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
@@ -7192,6 +7201,9 @@
       </c>
       <c r="O107" t="s">
         <v>4</v>
+      </c>
+      <c r="R107" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
@@ -8489,6 +8501,9 @@
       <c r="P131" t="s">
         <v>10</v>
       </c>
+      <c r="Q131" t="s">
+        <v>10</v>
+      </c>
       <c r="R131" t="s">
         <v>10</v>
       </c>
@@ -8600,6 +8615,9 @@
       </c>
       <c r="O133" t="s">
         <v>4</v>
+      </c>
+      <c r="S133" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
@@ -9034,6 +9052,12 @@
       <c r="Q141" t="s">
         <v>13</v>
       </c>
+      <c r="R141" t="s">
+        <v>10</v>
+      </c>
+      <c r="S141" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -10007,6 +10031,12 @@
       </c>
       <c r="Q163" t="s">
         <v>13</v>
+      </c>
+      <c r="R163" t="s">
+        <v>10</v>
+      </c>
+      <c r="S163" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">

--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{65C2C144-C181-E24F-AEAA-8A12798510A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F091B0C2-8F25-3F41-ADE7-B65236A1C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="880" windowWidth="29960" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="880" windowWidth="31820" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="question-short" sheetId="2" r:id="rId1"/>
     <sheet name="results-survey-lime" sheetId="1" r:id="rId2"/>
     <sheet name="results-survey-condensed" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2963" uniqueCount="107">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2979" uniqueCount="119">
   <si>
     <t>Männlich</t>
   </si>
@@ -348,6 +359,42 @@
   </si>
   <si>
     <t>Soll die Verbandsarbeit in den nächsten Jahren digital in den sozialen Netzwerken ausgeweitet werden?</t>
+  </si>
+  <si>
+    <t>f5dauer_verletzung</t>
+  </si>
+  <si>
+    <t>f6einkommen_jahr</t>
+  </si>
+  <si>
+    <t>f8eis_verkauf</t>
+  </si>
+  <si>
+    <t>f7gruppengroesse</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie lange schätzen Sie dauert es im Durchschnitt in Tagen bis sich ein Besucher bei Ihnen gefährlich verletzt? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wieviel Einkommen hatten Sie brutto in Tausend EUR im letzten Jahr? </t>
+  </si>
+  <si>
+    <t>Wie groß sind ihre Besuchergruppen im Durchschnitt pro Monat?</t>
+  </si>
+  <si>
+    <t>Wie viel 100 Liter Eis verkaufen Sie im Durchschnitt pro Monat?</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4F928A-80B7-7049-97FC-817AF15AF4BA}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1420,6 +1467,50 @@
         <v>105</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1427,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:W174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="I147" workbookViewId="0">
+      <selection activeCell="W174" sqref="W174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1440,9 +1531,14 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1500,8 +1596,20 @@
       <c r="S1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1559,8 +1667,20 @@
       <c r="S2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2">
+        <v>207</v>
+      </c>
+      <c r="V2">
+        <v>24</v>
+      </c>
+      <c r="W2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1615,8 +1735,20 @@
       <c r="S3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>1048</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1671,8 +1803,20 @@
       <c r="S4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>104</v>
+      </c>
+      <c r="U4">
+        <v>255</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1718,8 +1862,20 @@
       <c r="Q5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>174</v>
+      </c>
+      <c r="U5">
+        <v>571</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1777,8 +1933,20 @@
       <c r="S6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>13</v>
+      </c>
+      <c r="U6">
+        <v>473</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1836,8 +2004,20 @@
       <c r="S7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>43</v>
+      </c>
+      <c r="U7">
+        <v>453</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1895,8 +2075,20 @@
       <c r="S8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="U8">
+        <v>1193</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1948,8 +2140,20 @@
       <c r="S9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>19</v>
+      </c>
+      <c r="U9">
+        <v>698</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2004,8 +2208,20 @@
       <c r="S10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>199</v>
+      </c>
+      <c r="U10">
+        <v>1359</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2051,8 +2267,20 @@
       <c r="Q11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>249</v>
+      </c>
+      <c r="U11">
+        <v>688</v>
+      </c>
+      <c r="V11">
+        <v>22</v>
+      </c>
+      <c r="W11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2107,8 +2335,20 @@
       <c r="S12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>120</v>
+      </c>
+      <c r="U12">
+        <v>218</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2163,8 +2403,20 @@
       <c r="S13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>29</v>
+      </c>
+      <c r="U13">
+        <v>302</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2222,8 +2474,20 @@
       <c r="S14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>179</v>
+      </c>
+      <c r="U14">
+        <v>1120</v>
+      </c>
+      <c r="V14">
+        <v>16</v>
+      </c>
+      <c r="W14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2278,8 +2542,20 @@
       <c r="S15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>33</v>
+      </c>
+      <c r="U15">
+        <v>279</v>
+      </c>
+      <c r="V15">
+        <v>19</v>
+      </c>
+      <c r="W15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2334,8 +2610,20 @@
       <c r="S16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>40</v>
+      </c>
+      <c r="U16">
+        <v>818</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2390,8 +2678,20 @@
       <c r="S17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>126</v>
+      </c>
+      <c r="U17">
+        <v>123</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2446,8 +2746,20 @@
       <c r="S18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <v>162</v>
+      </c>
+      <c r="U18">
+        <v>669</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2502,8 +2814,20 @@
       <c r="S19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>1032</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2558,8 +2882,20 @@
       <c r="S20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <v>595</v>
+      </c>
+      <c r="V20">
+        <v>22</v>
+      </c>
+      <c r="W20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2605,8 +2941,20 @@
       <c r="Q21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>13</v>
+      </c>
+      <c r="U21">
+        <v>592</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2658,8 +3006,20 @@
       <c r="S22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>53</v>
+      </c>
+      <c r="U22">
+        <v>1970</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2717,8 +3077,20 @@
       <c r="S23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>13</v>
+      </c>
+      <c r="U23">
+        <v>551</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2773,8 +3145,20 @@
       <c r="S24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>468</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2826,8 +3210,20 @@
       <c r="S25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <v>75</v>
+      </c>
+      <c r="U25">
+        <v>398</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2879,8 +3275,20 @@
       <c r="S26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>23</v>
+      </c>
+      <c r="U26">
+        <v>1788</v>
+      </c>
+      <c r="V26">
+        <v>16</v>
+      </c>
+      <c r="W26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2929,8 +3337,20 @@
       <c r="Q27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>21</v>
+      </c>
+      <c r="U27">
+        <v>1057</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2985,8 +3405,20 @@
       <c r="S28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <v>24</v>
+      </c>
+      <c r="U28">
+        <v>284</v>
+      </c>
+      <c r="V28">
+        <v>11</v>
+      </c>
+      <c r="W28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3032,8 +3464,20 @@
       <c r="Q29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>76</v>
+      </c>
+      <c r="U29">
+        <v>294</v>
+      </c>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3085,8 +3529,20 @@
       <c r="S30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>135</v>
+      </c>
+      <c r="U30">
+        <v>1745</v>
+      </c>
+      <c r="V30">
+        <v>15</v>
+      </c>
+      <c r="W30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3141,8 +3597,20 @@
       <c r="S31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>598</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3179,8 +3647,20 @@
       <c r="Q32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>25</v>
+      </c>
+      <c r="U32">
+        <v>232</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3229,8 +3709,20 @@
       <c r="R33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>16</v>
+      </c>
+      <c r="U33">
+        <v>167</v>
+      </c>
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3279,8 +3771,20 @@
       <c r="S34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>53</v>
+      </c>
+      <c r="U34">
+        <v>490</v>
+      </c>
+      <c r="V34">
+        <v>4</v>
+      </c>
+      <c r="W34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3335,8 +3839,20 @@
       <c r="S35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>25</v>
+      </c>
+      <c r="U35">
+        <v>769</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3391,8 +3907,20 @@
       <c r="S36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>391</v>
+      </c>
+      <c r="U36">
+        <v>375</v>
+      </c>
+      <c r="V36">
+        <v>8</v>
+      </c>
+      <c r="W36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3447,8 +3975,20 @@
       <c r="S37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>16</v>
+      </c>
+      <c r="U37">
+        <v>3001</v>
+      </c>
+      <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3494,8 +4034,20 @@
       <c r="Q38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>20</v>
+      </c>
+      <c r="U38">
+        <v>244</v>
+      </c>
+      <c r="V38">
+        <v>37</v>
+      </c>
+      <c r="W38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3541,8 +4093,20 @@
       <c r="Q39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>83</v>
+      </c>
+      <c r="U39">
+        <v>204</v>
+      </c>
+      <c r="V39">
+        <v>12</v>
+      </c>
+      <c r="W39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -3594,8 +4158,20 @@
       <c r="S40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>281</v>
+      </c>
+      <c r="U40">
+        <v>968</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3650,8 +4226,20 @@
       <c r="S41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <v>49</v>
+      </c>
+      <c r="U41">
+        <v>1255</v>
+      </c>
+      <c r="V41">
+        <v>7</v>
+      </c>
+      <c r="W41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3706,8 +4294,20 @@
       <c r="S42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <v>41</v>
+      </c>
+      <c r="U42">
+        <v>389</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3762,8 +4362,20 @@
       <c r="S43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <v>200</v>
+      </c>
+      <c r="U43">
+        <v>312</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3818,8 +4430,20 @@
       <c r="S44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <v>25</v>
+      </c>
+      <c r="U44">
+        <v>769</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3874,8 +4498,20 @@
       <c r="S45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <v>112</v>
+      </c>
+      <c r="U45">
+        <v>850</v>
+      </c>
+      <c r="V45">
+        <v>17</v>
+      </c>
+      <c r="W45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3930,8 +4566,20 @@
       <c r="S46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <v>112</v>
+      </c>
+      <c r="U46">
+        <v>1073</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3983,8 +4631,20 @@
       <c r="S47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <v>224</v>
+      </c>
+      <c r="U47">
+        <v>512</v>
+      </c>
+      <c r="V47">
+        <v>13</v>
+      </c>
+      <c r="W47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4033,8 +4693,20 @@
       <c r="Q48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <v>58</v>
+      </c>
+      <c r="U48">
+        <v>1077</v>
+      </c>
+      <c r="V48">
+        <v>4</v>
+      </c>
+      <c r="W48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4089,8 +4761,20 @@
       <c r="S49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49">
+        <v>233</v>
+      </c>
+      <c r="U49">
+        <v>1206</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4145,8 +4829,20 @@
       <c r="S50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <v>36</v>
+      </c>
+      <c r="U50">
+        <v>914</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4201,8 +4897,20 @@
       <c r="S51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <v>168</v>
+      </c>
+      <c r="U51">
+        <v>1665</v>
+      </c>
+      <c r="V51">
+        <v>9</v>
+      </c>
+      <c r="W51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4257,8 +4965,20 @@
       <c r="S52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <v>98</v>
+      </c>
+      <c r="U52">
+        <v>2329</v>
+      </c>
+      <c r="V52">
+        <v>15</v>
+      </c>
+      <c r="W52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4313,8 +5033,20 @@
       <c r="S53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <v>92</v>
+      </c>
+      <c r="U53">
+        <v>1527</v>
+      </c>
+      <c r="V53">
+        <v>7</v>
+      </c>
+      <c r="W53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4360,8 +5092,20 @@
       <c r="Q54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>55</v>
+      </c>
+      <c r="U54">
+        <v>542</v>
+      </c>
+      <c r="V54">
+        <v>15</v>
+      </c>
+      <c r="W54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4416,8 +5160,20 @@
       <c r="S55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <v>105</v>
+      </c>
+      <c r="U55">
+        <v>261</v>
+      </c>
+      <c r="V55">
+        <v>6</v>
+      </c>
+      <c r="W55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4475,8 +5231,20 @@
       <c r="S56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <v>113</v>
+      </c>
+      <c r="U56">
+        <v>1277</v>
+      </c>
+      <c r="V56">
+        <v>13</v>
+      </c>
+      <c r="W56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -4522,8 +5290,20 @@
       <c r="Q57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <v>45</v>
+      </c>
+      <c r="U57">
+        <v>2743</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4578,8 +5358,20 @@
       <c r="S58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <v>17</v>
+      </c>
+      <c r="U58">
+        <v>246</v>
+      </c>
+      <c r="V58">
+        <v>6</v>
+      </c>
+      <c r="W58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4634,8 +5426,20 @@
       <c r="S59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>173</v>
+      </c>
+      <c r="U59">
+        <v>1447</v>
+      </c>
+      <c r="V59">
+        <v>6</v>
+      </c>
+      <c r="W59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4687,8 +5491,20 @@
       <c r="S60" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <v>86</v>
+      </c>
+      <c r="U60">
+        <v>1326</v>
+      </c>
+      <c r="V60">
+        <v>8</v>
+      </c>
+      <c r="W60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4743,8 +5559,20 @@
       <c r="S61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>578</v>
+      </c>
+      <c r="V61">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4799,8 +5627,20 @@
       <c r="S62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62">
+        <v>41</v>
+      </c>
+      <c r="U62">
+        <v>480</v>
+      </c>
+      <c r="V62">
+        <v>6</v>
+      </c>
+      <c r="W62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4855,8 +5695,20 @@
       <c r="S63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <v>20</v>
+      </c>
+      <c r="U63">
+        <v>1727</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4911,8 +5763,20 @@
       <c r="S64" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64">
+        <v>21</v>
+      </c>
+      <c r="U64">
+        <v>334</v>
+      </c>
+      <c r="V64">
+        <v>9</v>
+      </c>
+      <c r="W64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4970,8 +5834,20 @@
       <c r="S65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>551</v>
+      </c>
+      <c r="V65">
+        <v>13</v>
+      </c>
+      <c r="W65">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5026,8 +5902,20 @@
       <c r="S66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <v>258</v>
+      </c>
+      <c r="U66">
+        <v>329</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -5052,8 +5940,20 @@
       <c r="S67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <v>199</v>
+      </c>
+      <c r="U67">
+        <v>732</v>
+      </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5108,8 +6008,20 @@
       <c r="S68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>8</v>
+      </c>
+      <c r="U68">
+        <v>1271</v>
+      </c>
+      <c r="V68">
+        <v>15</v>
+      </c>
+      <c r="W68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5164,8 +6076,20 @@
       <c r="S69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <v>56</v>
+      </c>
+      <c r="U69">
+        <v>1226</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -5217,8 +6141,20 @@
       <c r="R70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <v>165</v>
+      </c>
+      <c r="U70">
+        <v>3963</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5264,8 +6200,20 @@
       <c r="Q71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71">
+        <v>305</v>
+      </c>
+      <c r="U71">
+        <v>1207</v>
+      </c>
+      <c r="V71">
+        <v>6</v>
+      </c>
+      <c r="W71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5320,8 +6268,20 @@
       <c r="S72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72">
+        <v>73</v>
+      </c>
+      <c r="U72">
+        <v>1164</v>
+      </c>
+      <c r="V72">
+        <v>10</v>
+      </c>
+      <c r="W72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5367,8 +6327,20 @@
       <c r="Q73" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73">
+        <v>120</v>
+      </c>
+      <c r="U73">
+        <v>617</v>
+      </c>
+      <c r="V73">
+        <v>4</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5423,8 +6395,20 @@
       <c r="S74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74">
+        <v>180</v>
+      </c>
+      <c r="U74">
+        <v>1479</v>
+      </c>
+      <c r="V74">
+        <v>14</v>
+      </c>
+      <c r="W74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5479,8 +6463,20 @@
       <c r="S75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75">
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <v>438</v>
+      </c>
+      <c r="V75">
+        <v>11</v>
+      </c>
+      <c r="W75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5535,8 +6531,20 @@
       <c r="S76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76">
+        <v>86</v>
+      </c>
+      <c r="U76">
+        <v>2315</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5588,8 +6596,20 @@
       <c r="S77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77">
+        <v>158</v>
+      </c>
+      <c r="U77">
+        <v>211</v>
+      </c>
+      <c r="V77">
+        <v>4</v>
+      </c>
+      <c r="W77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5644,8 +6664,20 @@
       <c r="S78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78">
+        <v>6</v>
+      </c>
+      <c r="U78">
+        <v>2194</v>
+      </c>
+      <c r="V78">
+        <v>9</v>
+      </c>
+      <c r="W78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5700,8 +6732,20 @@
       <c r="S79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79">
+        <v>30</v>
+      </c>
+      <c r="U79">
+        <v>571</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5735,8 +6779,20 @@
       <c r="Q80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80">
+        <v>144</v>
+      </c>
+      <c r="U80">
+        <v>406</v>
+      </c>
+      <c r="V80">
+        <v>7</v>
+      </c>
+      <c r="W80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5791,8 +6847,20 @@
       <c r="S81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81">
+        <v>10</v>
+      </c>
+      <c r="U81">
+        <v>1618</v>
+      </c>
+      <c r="V81">
+        <v>4</v>
+      </c>
+      <c r="W81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5844,8 +6912,20 @@
       <c r="S82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82">
+        <v>41</v>
+      </c>
+      <c r="U82">
+        <v>128</v>
+      </c>
+      <c r="V82">
+        <v>5</v>
+      </c>
+      <c r="W82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5897,8 +6977,20 @@
       <c r="S83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83">
+        <v>96</v>
+      </c>
+      <c r="U83">
+        <v>747</v>
+      </c>
+      <c r="V83">
+        <v>4</v>
+      </c>
+      <c r="W83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5953,8 +7045,20 @@
       <c r="S84" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84">
+        <v>370</v>
+      </c>
+      <c r="U84">
+        <v>264</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -6012,8 +7116,20 @@
       <c r="S85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85">
+        <v>271</v>
+      </c>
+      <c r="U85">
+        <v>3566</v>
+      </c>
+      <c r="V85">
+        <v>5</v>
+      </c>
+      <c r="W85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -6068,8 +7184,20 @@
       <c r="S86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86">
+        <v>31</v>
+      </c>
+      <c r="U86">
+        <v>1765</v>
+      </c>
+      <c r="V86">
+        <v>6</v>
+      </c>
+      <c r="W86">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -6124,8 +7252,20 @@
       <c r="S87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87">
+        <v>77</v>
+      </c>
+      <c r="U87">
+        <v>883</v>
+      </c>
+      <c r="V87">
+        <v>9</v>
+      </c>
+      <c r="W87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -6180,8 +7320,20 @@
       <c r="S88" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88">
+        <v>28</v>
+      </c>
+      <c r="U88">
+        <v>263</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -6233,8 +7385,20 @@
       <c r="S89" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89">
+        <v>86</v>
+      </c>
+      <c r="U89">
+        <v>1029</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -6280,8 +7444,20 @@
       <c r="Q90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90">
+        <v>6</v>
+      </c>
+      <c r="U90">
+        <v>1196</v>
+      </c>
+      <c r="V90">
+        <v>11</v>
+      </c>
+      <c r="W90">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -6336,8 +7512,20 @@
       <c r="S91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91">
+        <v>38</v>
+      </c>
+      <c r="U91">
+        <v>1337</v>
+      </c>
+      <c r="V91">
+        <v>11</v>
+      </c>
+      <c r="W91">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -6383,8 +7571,20 @@
       <c r="Q92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92">
+        <v>94</v>
+      </c>
+      <c r="U92">
+        <v>1741</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -6439,8 +7639,20 @@
       <c r="S93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93">
+        <v>154</v>
+      </c>
+      <c r="U93">
+        <v>5556</v>
+      </c>
+      <c r="V93">
+        <v>10</v>
+      </c>
+      <c r="W93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -6495,8 +7707,20 @@
       <c r="S94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94">
+        <v>17</v>
+      </c>
+      <c r="U94">
+        <v>402</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -6554,8 +7778,20 @@
       <c r="S95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95">
+        <v>163</v>
+      </c>
+      <c r="U95">
+        <v>342</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -6613,8 +7849,20 @@
       <c r="S96" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96">
+        <v>17</v>
+      </c>
+      <c r="U96">
+        <v>2095</v>
+      </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
+      <c r="W96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6669,8 +7917,20 @@
       <c r="S97" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97">
+        <v>102</v>
+      </c>
+      <c r="U97">
+        <v>3480</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6719,8 +7979,20 @@
       <c r="R98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98">
+        <v>43</v>
+      </c>
+      <c r="U98">
+        <v>632</v>
+      </c>
+      <c r="V98">
+        <v>5</v>
+      </c>
+      <c r="W98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6772,8 +8044,20 @@
       <c r="S99" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99">
+        <v>27</v>
+      </c>
+      <c r="U99">
+        <v>1320</v>
+      </c>
+      <c r="V99">
+        <v>4</v>
+      </c>
+      <c r="W99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6828,8 +8112,20 @@
       <c r="S100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100">
+        <v>187</v>
+      </c>
+      <c r="U100">
+        <v>661</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6884,8 +8180,20 @@
       <c r="S101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101">
+        <v>263</v>
+      </c>
+      <c r="U101">
+        <v>580</v>
+      </c>
+      <c r="V101">
+        <v>25</v>
+      </c>
+      <c r="W101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6940,8 +8248,20 @@
       <c r="S102" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102">
+        <v>131</v>
+      </c>
+      <c r="U102">
+        <v>1331</v>
+      </c>
+      <c r="V102">
+        <v>6</v>
+      </c>
+      <c r="W102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6996,8 +8316,20 @@
       <c r="S103" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103">
+        <v>154</v>
+      </c>
+      <c r="U103">
+        <v>835</v>
+      </c>
+      <c r="V103">
+        <v>8</v>
+      </c>
+      <c r="W103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7052,8 +8384,20 @@
       <c r="S104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104">
+        <v>107</v>
+      </c>
+      <c r="U104">
+        <v>816</v>
+      </c>
+      <c r="V104">
+        <v>8</v>
+      </c>
+      <c r="W104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7102,8 +8446,20 @@
       <c r="Q105" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105">
+        <v>313</v>
+      </c>
+      <c r="U105">
+        <v>735</v>
+      </c>
+      <c r="V105">
+        <v>11</v>
+      </c>
+      <c r="W105">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7158,8 +8514,20 @@
       <c r="S106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106">
+        <v>116</v>
+      </c>
+      <c r="U106">
+        <v>273</v>
+      </c>
+      <c r="V106">
+        <v>4</v>
+      </c>
+      <c r="W106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7205,8 +8573,20 @@
       <c r="R107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107">
+        <v>103</v>
+      </c>
+      <c r="U107">
+        <v>742</v>
+      </c>
+      <c r="V107">
+        <v>15</v>
+      </c>
+      <c r="W107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7252,8 +8632,20 @@
       <c r="Q108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108">
+        <v>14</v>
+      </c>
+      <c r="U108">
+        <v>709</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+      <c r="W108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7305,8 +8697,20 @@
       <c r="S109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109">
+        <v>59</v>
+      </c>
+      <c r="U109">
+        <v>110</v>
+      </c>
+      <c r="V109">
+        <v>4</v>
+      </c>
+      <c r="W109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -7352,8 +8756,20 @@
       <c r="Q110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110">
+        <v>41</v>
+      </c>
+      <c r="U110">
+        <v>736</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -7408,8 +8824,20 @@
       <c r="S111" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111">
+        <v>67</v>
+      </c>
+      <c r="U111">
+        <v>2230</v>
+      </c>
+      <c r="V111">
+        <v>2</v>
+      </c>
+      <c r="W111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -7464,8 +8892,20 @@
       <c r="S112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112">
+        <v>229</v>
+      </c>
+      <c r="U112">
+        <v>567</v>
+      </c>
+      <c r="V112">
+        <v>8</v>
+      </c>
+      <c r="W112">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -7520,8 +8960,20 @@
       <c r="S113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113">
+        <v>83</v>
+      </c>
+      <c r="U113">
+        <v>1447</v>
+      </c>
+      <c r="V113">
+        <v>10</v>
+      </c>
+      <c r="W113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -7579,8 +9031,20 @@
       <c r="S114" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114">
+        <v>12</v>
+      </c>
+      <c r="U114">
+        <v>1162</v>
+      </c>
+      <c r="V114">
+        <v>6</v>
+      </c>
+      <c r="W114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -7635,8 +9099,20 @@
       <c r="S115" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115">
+        <v>108</v>
+      </c>
+      <c r="U115">
+        <v>1719</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -7688,8 +9164,20 @@
       <c r="S116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116">
+        <v>91</v>
+      </c>
+      <c r="U116">
+        <v>1863</v>
+      </c>
+      <c r="V116">
+        <v>5</v>
+      </c>
+      <c r="W116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -7744,8 +9232,20 @@
       <c r="S117" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117">
+        <v>16</v>
+      </c>
+      <c r="U117">
+        <v>1222</v>
+      </c>
+      <c r="V117">
+        <v>10</v>
+      </c>
+      <c r="W117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -7803,8 +9303,20 @@
       <c r="S118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118">
+        <v>75</v>
+      </c>
+      <c r="U118">
+        <v>227</v>
+      </c>
+      <c r="V118">
+        <v>2</v>
+      </c>
+      <c r="W118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -7856,8 +9368,20 @@
       <c r="S119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119">
+        <v>17</v>
+      </c>
+      <c r="U119">
+        <v>1940</v>
+      </c>
+      <c r="V119">
+        <v>6</v>
+      </c>
+      <c r="W119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7909,8 +9433,20 @@
       <c r="S120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120">
+        <v>46</v>
+      </c>
+      <c r="U120">
+        <v>1157</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -7965,8 +9501,20 @@
       <c r="S121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121">
+        <v>98</v>
+      </c>
+      <c r="U121">
+        <v>590</v>
+      </c>
+      <c r="V121">
+        <v>13</v>
+      </c>
+      <c r="W121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -8021,8 +9569,20 @@
       <c r="S122" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122">
+        <v>10</v>
+      </c>
+      <c r="U122">
+        <v>640</v>
+      </c>
+      <c r="V122">
+        <v>10</v>
+      </c>
+      <c r="W122">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -8077,8 +9637,20 @@
       <c r="S123" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123">
+        <v>29</v>
+      </c>
+      <c r="U123">
+        <v>893</v>
+      </c>
+      <c r="V123">
+        <v>8</v>
+      </c>
+      <c r="W123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -8130,8 +9702,20 @@
       <c r="S124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124">
+        <v>69</v>
+      </c>
+      <c r="U124">
+        <v>1819</v>
+      </c>
+      <c r="V124">
+        <v>13</v>
+      </c>
+      <c r="W124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -8186,8 +9770,20 @@
       <c r="S125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125">
+        <v>56</v>
+      </c>
+      <c r="U125">
+        <v>1089</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -8242,8 +9838,20 @@
       <c r="S126" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126">
+        <v>155</v>
+      </c>
+      <c r="U126">
+        <v>250</v>
+      </c>
+      <c r="V126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -8298,8 +9906,20 @@
       <c r="S127" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127">
+        <v>84</v>
+      </c>
+      <c r="U127">
+        <v>1777</v>
+      </c>
+      <c r="V127">
+        <v>2</v>
+      </c>
+      <c r="W127">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -8348,8 +9968,20 @@
       <c r="Q128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128">
+        <v>125</v>
+      </c>
+      <c r="U128">
+        <v>4015</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -8404,8 +10036,20 @@
       <c r="S129" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129">
+        <v>16</v>
+      </c>
+      <c r="U129">
+        <v>490</v>
+      </c>
+      <c r="V129">
+        <v>12</v>
+      </c>
+      <c r="W129">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -8451,8 +10095,20 @@
       <c r="Q130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130">
+        <v>199</v>
+      </c>
+      <c r="U130">
+        <v>2780</v>
+      </c>
+      <c r="V130">
+        <v>5</v>
+      </c>
+      <c r="W130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -8510,8 +10166,20 @@
       <c r="S131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131">
+        <v>26</v>
+      </c>
+      <c r="U131">
+        <v>1270</v>
+      </c>
+      <c r="V131">
+        <v>6</v>
+      </c>
+      <c r="W131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -8569,8 +10237,20 @@
       <c r="S132" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132">
+        <v>162</v>
+      </c>
+      <c r="U132">
+        <v>1402</v>
+      </c>
+      <c r="V132">
+        <v>8</v>
+      </c>
+      <c r="W132">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -8619,8 +10299,20 @@
       <c r="S133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133">
+        <v>62</v>
+      </c>
+      <c r="U133">
+        <v>334</v>
+      </c>
+      <c r="V133">
+        <v>7</v>
+      </c>
+      <c r="W133">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -8678,8 +10370,20 @@
       <c r="S134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134">
+        <v>71</v>
+      </c>
+      <c r="U134">
+        <v>1452</v>
+      </c>
+      <c r="V134">
+        <v>7</v>
+      </c>
+      <c r="W134">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -8731,8 +10435,20 @@
       <c r="S135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135">
+        <v>386</v>
+      </c>
+      <c r="U135">
+        <v>893</v>
+      </c>
+      <c r="V135">
+        <v>8</v>
+      </c>
+      <c r="W135">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -8787,8 +10503,20 @@
       <c r="S136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136">
+        <v>83</v>
+      </c>
+      <c r="U136">
+        <v>501</v>
+      </c>
+      <c r="V136">
+        <v>8</v>
+      </c>
+      <c r="W136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -8834,8 +10562,20 @@
       <c r="Q137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137">
+        <v>43</v>
+      </c>
+      <c r="U137">
+        <v>804</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -8890,8 +10630,20 @@
       <c r="S138" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138">
+        <v>223</v>
+      </c>
+      <c r="U138">
+        <v>2777</v>
+      </c>
+      <c r="V138">
+        <v>4</v>
+      </c>
+      <c r="W138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -8946,8 +10698,20 @@
       <c r="S139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139">
+        <v>154</v>
+      </c>
+      <c r="U139">
+        <v>638</v>
+      </c>
+      <c r="V139">
+        <v>6</v>
+      </c>
+      <c r="W139">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -9005,8 +10769,20 @@
       <c r="S140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140">
+        <v>10</v>
+      </c>
+      <c r="U140">
+        <v>561</v>
+      </c>
+      <c r="V140">
+        <v>6</v>
+      </c>
+      <c r="W140">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -9058,8 +10834,20 @@
       <c r="S141" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141">
+        <v>70</v>
+      </c>
+      <c r="U141">
+        <v>845</v>
+      </c>
+      <c r="V141">
+        <v>6</v>
+      </c>
+      <c r="W141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -9105,8 +10893,20 @@
       <c r="Q142" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142">
+        <v>17</v>
+      </c>
+      <c r="U142">
+        <v>3531</v>
+      </c>
+      <c r="V142">
+        <v>4</v>
+      </c>
+      <c r="W142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -9161,8 +10961,20 @@
       <c r="S143" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143">
+        <v>125</v>
+      </c>
+      <c r="U143">
+        <v>1276</v>
+      </c>
+      <c r="V143">
+        <v>5</v>
+      </c>
+      <c r="W143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -9214,8 +11026,20 @@
       <c r="S144" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144">
+        <v>194</v>
+      </c>
+      <c r="U144">
+        <v>4101</v>
+      </c>
+      <c r="V144">
+        <v>6</v>
+      </c>
+      <c r="W144">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -9270,8 +11094,20 @@
       <c r="S145" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
+        <v>693</v>
+      </c>
+      <c r="V145">
+        <v>9</v>
+      </c>
+      <c r="W145">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -9317,8 +11153,20 @@
       <c r="Q146" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146">
+        <v>130</v>
+      </c>
+      <c r="U146">
+        <v>371</v>
+      </c>
+      <c r="V146">
+        <v>9</v>
+      </c>
+      <c r="W146">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -9370,8 +11218,20 @@
       <c r="S147" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147">
+        <v>22</v>
+      </c>
+      <c r="U147">
+        <v>328</v>
+      </c>
+      <c r="V147">
+        <v>7</v>
+      </c>
+      <c r="W147">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -9411,8 +11271,20 @@
       <c r="S148" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148">
+        <v>42</v>
+      </c>
+      <c r="U148">
+        <v>75</v>
+      </c>
+      <c r="V148">
+        <v>5</v>
+      </c>
+      <c r="W148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -9458,8 +11330,20 @@
       <c r="S149" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149">
+        <v>98</v>
+      </c>
+      <c r="U149">
+        <v>1202</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -9502,8 +11386,20 @@
       <c r="S150" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150">
+        <v>61</v>
+      </c>
+      <c r="U150">
+        <v>1004</v>
+      </c>
+      <c r="V150">
+        <v>8</v>
+      </c>
+      <c r="W150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -9546,8 +11442,20 @@
       <c r="S151" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151">
+        <v>58</v>
+      </c>
+      <c r="U151">
+        <v>1500</v>
+      </c>
+      <c r="V151">
+        <v>6</v>
+      </c>
+      <c r="W151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -9587,8 +11495,20 @@
       <c r="S152" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152">
+        <v>26</v>
+      </c>
+      <c r="U152">
+        <v>511</v>
+      </c>
+      <c r="V152">
+        <v>8</v>
+      </c>
+      <c r="W152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -9634,8 +11554,20 @@
       <c r="S153" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153">
+        <v>51</v>
+      </c>
+      <c r="U153">
+        <v>362</v>
+      </c>
+      <c r="V153">
+        <v>5</v>
+      </c>
+      <c r="W153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -9678,8 +11610,20 @@
       <c r="S154" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154">
+        <v>282</v>
+      </c>
+      <c r="U154">
+        <v>125</v>
+      </c>
+      <c r="V154">
+        <v>4</v>
+      </c>
+      <c r="W154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -9716,8 +11660,20 @@
       <c r="S155" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155">
+        <v>119</v>
+      </c>
+      <c r="U155">
+        <v>1764</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -9754,8 +11710,20 @@
       <c r="Q156" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156">
+        <v>56</v>
+      </c>
+      <c r="U156">
+        <v>265</v>
+      </c>
+      <c r="V156">
+        <v>8</v>
+      </c>
+      <c r="W156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -9798,8 +11766,20 @@
       <c r="S157" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T157">
+        <v>123</v>
+      </c>
+      <c r="U157">
+        <v>395</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -9842,8 +11822,20 @@
       <c r="S158" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T158">
+        <v>159</v>
+      </c>
+      <c r="U158">
+        <v>217</v>
+      </c>
+      <c r="V158">
+        <v>5</v>
+      </c>
+      <c r="W158">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -9874,8 +11866,20 @@
       <c r="K159" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T159">
+        <v>85</v>
+      </c>
+      <c r="U159">
+        <v>50</v>
+      </c>
+      <c r="V159">
+        <v>8</v>
+      </c>
+      <c r="W159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -9915,8 +11919,20 @@
       <c r="S160" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T160">
+        <v>91</v>
+      </c>
+      <c r="U160">
+        <v>1007</v>
+      </c>
+      <c r="V160">
+        <v>6</v>
+      </c>
+      <c r="W160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -9953,8 +11969,20 @@
       <c r="Q161" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T161">
+        <v>25</v>
+      </c>
+      <c r="U161">
+        <v>262</v>
+      </c>
+      <c r="V161">
+        <v>9</v>
+      </c>
+      <c r="W161">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -9997,8 +12025,20 @@
       <c r="S162" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T162">
+        <v>84</v>
+      </c>
+      <c r="U162">
+        <v>900</v>
+      </c>
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -10038,8 +12078,20 @@
       <c r="S163" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T163">
+        <v>34</v>
+      </c>
+      <c r="U163">
+        <v>850</v>
+      </c>
+      <c r="V163">
+        <v>9</v>
+      </c>
+      <c r="W163">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -10079,8 +12131,20 @@
       <c r="S164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T164">
+        <v>84</v>
+      </c>
+      <c r="U164">
+        <v>65</v>
+      </c>
+      <c r="V164">
+        <v>4</v>
+      </c>
+      <c r="W164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -10123,8 +12187,20 @@
       <c r="S165" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T165">
+        <v>93</v>
+      </c>
+      <c r="U165">
+        <v>768</v>
+      </c>
+      <c r="V165">
+        <v>9</v>
+      </c>
+      <c r="W165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -10164,8 +12240,20 @@
       <c r="S166" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T166">
+        <v>476</v>
+      </c>
+      <c r="U166">
+        <v>1200</v>
+      </c>
+      <c r="V166">
+        <v>3</v>
+      </c>
+      <c r="W166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -10208,8 +12296,20 @@
       <c r="S167" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T167">
+        <v>50</v>
+      </c>
+      <c r="U167">
+        <v>35</v>
+      </c>
+      <c r="V167">
+        <v>8</v>
+      </c>
+      <c r="W167">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -10252,8 +12352,20 @@
       <c r="S168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T168">
+        <v>176</v>
+      </c>
+      <c r="U168">
+        <v>2500</v>
+      </c>
+      <c r="V168">
+        <v>7</v>
+      </c>
+      <c r="W168">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -10296,8 +12408,20 @@
       <c r="S169" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T169">
+        <v>96</v>
+      </c>
+      <c r="U169">
+        <v>1008</v>
+      </c>
+      <c r="V169">
+        <v>5</v>
+      </c>
+      <c r="W169">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -10340,8 +12464,20 @@
       <c r="S170" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T170">
+        <v>258</v>
+      </c>
+      <c r="U170">
+        <v>2125</v>
+      </c>
+      <c r="V170">
+        <v>8</v>
+      </c>
+      <c r="W170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -10375,8 +12511,20 @@
       <c r="Q171" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T171">
+        <v>134</v>
+      </c>
+      <c r="U171">
+        <v>104</v>
+      </c>
+      <c r="V171">
+        <v>7</v>
+      </c>
+      <c r="W171">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -10422,8 +12570,20 @@
       <c r="S172" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T172">
+        <v>52</v>
+      </c>
+      <c r="U172">
+        <v>2376</v>
+      </c>
+      <c r="V172">
+        <v>4</v>
+      </c>
+      <c r="W172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -10466,8 +12626,20 @@
       <c r="S173" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T173">
+        <v>235</v>
+      </c>
+      <c r="U173">
+        <v>12</v>
+      </c>
+      <c r="V173">
+        <v>5</v>
+      </c>
+      <c r="W173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -10497,6 +12669,18 @@
       </c>
       <c r="K174" t="s">
         <v>9</v>
+      </c>
+      <c r="T174">
+        <v>120</v>
+      </c>
+      <c r="U174">
+        <v>159</v>
+      </c>
+      <c r="V174">
+        <v>2</v>
+      </c>
+      <c r="W174">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F091B0C2-8F25-3F41-ADE7-B65236A1C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB350A75-234B-5141-9148-AB877097AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="880" windowWidth="31820" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I147" workbookViewId="0">
-      <selection activeCell="W174" sqref="W174"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/survey-serengeti-tiger-king.xlsx
+++ b/data/survey-serengeti-tiger-king.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB350A75-234B-5141-9148-AB877097AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCCF5338-0FED-D143-B7EE-A0D85E6C7930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="880" windowWidth="31820" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:W174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
